--- a/Code/Results/Cases/Case_4_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.027012220595515</v>
+      </c>
+      <c r="D2">
+        <v>1.041848219706648</v>
+      </c>
+      <c r="E2">
+        <v>1.044065632376955</v>
+      </c>
+      <c r="F2">
+        <v>1.049647050962598</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.060393005776359</v>
+      </c>
+      <c r="J2">
+        <v>1.048413962243525</v>
+      </c>
+      <c r="K2">
+        <v>1.052753775895833</v>
+      </c>
+      <c r="L2">
+        <v>1.054943389983339</v>
+      </c>
+      <c r="M2">
+        <v>1.06045548429628</v>
+      </c>
+      <c r="N2">
+        <v>1.049902830324673</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.031840161471143</v>
+      </c>
+      <c r="D3">
+        <v>1.045578660739247</v>
+      </c>
+      <c r="E3">
+        <v>1.048594664058657</v>
+      </c>
+      <c r="F3">
+        <v>1.054506140364059</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.062287885278064</v>
+      </c>
+      <c r="J3">
+        <v>1.051498923961013</v>
+      </c>
+      <c r="K3">
+        <v>1.055659767213876</v>
+      </c>
+      <c r="L3">
+        <v>1.058641346982012</v>
+      </c>
+      <c r="M3">
+        <v>1.064486055361178</v>
+      </c>
+      <c r="N3">
+        <v>1.05299217304165</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.034897905775667</v>
+      </c>
+      <c r="D4">
+        <v>1.047943214626537</v>
+      </c>
+      <c r="E4">
+        <v>1.051468101019304</v>
+      </c>
+      <c r="F4">
+        <v>1.057589390220344</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.063477833336828</v>
+      </c>
+      <c r="J4">
+        <v>1.053449169949439</v>
+      </c>
+      <c r="K4">
+        <v>1.057495493843496</v>
+      </c>
+      <c r="L4">
+        <v>1.0609826349242</v>
+      </c>
+      <c r="M4">
+        <v>1.067039106955462</v>
+      </c>
+      <c r="N4">
+        <v>1.054945188603076</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.036168113773273</v>
+      </c>
+      <c r="D5">
+        <v>1.048925875693552</v>
+      </c>
+      <c r="E5">
+        <v>1.052662917127148</v>
+      </c>
+      <c r="F5">
+        <v>1.058871555570388</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.063969672429841</v>
+      </c>
+      <c r="J5">
+        <v>1.054258421880708</v>
+      </c>
+      <c r="K5">
+        <v>1.058256886874344</v>
+      </c>
+      <c r="L5">
+        <v>1.061955001309079</v>
+      </c>
+      <c r="M5">
+        <v>1.068099707767241</v>
+      </c>
+      <c r="N5">
+        <v>1.05575558976491</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.036380508672257</v>
+      </c>
+      <c r="D6">
+        <v>1.049090211794526</v>
+      </c>
+      <c r="E6">
+        <v>1.052862773512759</v>
+      </c>
+      <c r="F6">
+        <v>1.059086029290268</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.064051767741719</v>
+      </c>
+      <c r="J6">
+        <v>1.054393685645708</v>
+      </c>
+      <c r="K6">
+        <v>1.05838413098977</v>
+      </c>
+      <c r="L6">
+        <v>1.062117579439371</v>
+      </c>
+      <c r="M6">
+        <v>1.068277055509876</v>
+      </c>
+      <c r="N6">
+        <v>1.055891045619971</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.034914937584819</v>
+      </c>
+      <c r="D7">
+        <v>1.047956389256827</v>
+      </c>
+      <c r="E7">
+        <v>1.051484117336554</v>
+      </c>
+      <c r="F7">
+        <v>1.05760657701082</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.063484438067461</v>
+      </c>
+      <c r="J7">
+        <v>1.053460024518897</v>
+      </c>
+      <c r="K7">
+        <v>1.057505707829406</v>
+      </c>
+      <c r="L7">
+        <v>1.06099567398408</v>
+      </c>
+      <c r="M7">
+        <v>1.067053328068229</v>
+      </c>
+      <c r="N7">
+        <v>1.054956058587267</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.028657932551435</v>
+      </c>
+      <c r="D8">
+        <v>1.043119395047074</v>
+      </c>
+      <c r="E8">
+        <v>1.045608385416522</v>
+      </c>
+      <c r="F8">
+        <v>1.051302153128806</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.061041028046769</v>
+      </c>
+      <c r="J8">
+        <v>1.049466275293665</v>
+      </c>
+      <c r="K8">
+        <v>1.05374532448212</v>
+      </c>
+      <c r="L8">
+        <v>1.056204067409666</v>
+      </c>
+      <c r="M8">
+        <v>1.061829309663641</v>
+      </c>
+      <c r="N8">
+        <v>1.050956637780046</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.049999999999999</v>
+      </c>
+      <c r="C9">
+        <v>1.017096450317535</v>
+      </c>
+      <c r="D9">
+        <v>1.03419926630834</v>
+      </c>
+      <c r="E9">
+        <v>1.034792812938514</v>
+      </c>
+      <c r="F9">
+        <v>1.03970033441828</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.056446824678987</v>
+      </c>
+      <c r="J9">
+        <v>1.042059604782215</v>
+      </c>
+      <c r="K9">
+        <v>1.04676082453052</v>
+      </c>
+      <c r="L9">
+        <v>1.047345540783369</v>
+      </c>
+      <c r="M9">
+        <v>1.052180542035362</v>
+      </c>
+      <c r="N9">
+        <v>1.043539448946913</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>1.008986010479216</v>
+      </c>
+      <c r="D10">
+        <v>1.027957075175845</v>
+      </c>
+      <c r="E10">
+        <v>1.027235965245491</v>
+      </c>
+      <c r="F10">
+        <v>1.03159549548601</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.053172594882143</v>
+      </c>
+      <c r="J10">
+        <v>1.03684758460127</v>
+      </c>
+      <c r="K10">
+        <v>1.041839259152849</v>
+      </c>
+      <c r="L10">
+        <v>1.041130282833628</v>
+      </c>
+      <c r="M10">
+        <v>1.045416791584118</v>
+      </c>
+      <c r="N10">
+        <v>1.038320027099484</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>1.005368178774521</v>
+      </c>
+      <c r="D11">
+        <v>1.025177076604957</v>
+      </c>
+      <c r="E11">
+        <v>1.023872821982126</v>
+      </c>
+      <c r="F11">
+        <v>1.027988657688812</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.051700426197379</v>
+      </c>
+      <c r="J11">
+        <v>1.034519327970686</v>
+      </c>
+      <c r="K11">
+        <v>1.039639312344836</v>
+      </c>
+      <c r="L11">
+        <v>1.038358150326532</v>
+      </c>
+      <c r="M11">
+        <v>1.042401370991288</v>
+      </c>
+      <c r="N11">
+        <v>1.03598846407743</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>1.004007472629638</v>
+      </c>
+      <c r="D12">
+        <v>1.02413223350166</v>
+      </c>
+      <c r="E12">
+        <v>1.022609120955861</v>
+      </c>
+      <c r="F12">
+        <v>1.02663340425462</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.051145030171184</v>
+      </c>
+      <c r="J12">
+        <v>1.033643192080096</v>
+      </c>
+      <c r="K12">
+        <v>1.038811255679297</v>
+      </c>
+      <c r="L12">
+        <v>1.037315616863311</v>
+      </c>
+      <c r="M12">
+        <v>1.041267540273151</v>
+      </c>
+      <c r="N12">
+        <v>1.035111083973381</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>1.004300128966786</v>
+      </c>
+      <c r="D13">
+        <v>1.024356920135189</v>
+      </c>
+      <c r="E13">
+        <v>1.022880858060911</v>
+      </c>
+      <c r="F13">
+        <v>1.026924827614875</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.051264558821074</v>
+      </c>
+      <c r="J13">
+        <v>1.033831648285128</v>
+      </c>
+      <c r="K13">
+        <v>1.038989379120538</v>
+      </c>
+      <c r="L13">
+        <v>1.037539836486634</v>
+      </c>
+      <c r="M13">
+        <v>1.041511386526206</v>
+      </c>
+      <c r="N13">
+        <v>1.03529980780784</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>1.005256052609332</v>
+      </c>
+      <c r="D14">
+        <v>1.02509096289916</v>
+      </c>
+      <c r="E14">
+        <v>1.023768664353961</v>
+      </c>
+      <c r="F14">
+        <v>1.027876953817141</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.051654694132232</v>
+      </c>
+      <c r="J14">
+        <v>1.034447140740386</v>
+      </c>
+      <c r="K14">
+        <v>1.039571090578353</v>
+      </c>
+      <c r="L14">
+        <v>1.038272240279771</v>
+      </c>
+      <c r="M14">
+        <v>1.042307933602417</v>
+      </c>
+      <c r="N14">
+        <v>1.035916174332983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>1.005842761565075</v>
+      </c>
+      <c r="D15">
+        <v>1.025541590423595</v>
+      </c>
+      <c r="E15">
+        <v>1.02431372708801</v>
+      </c>
+      <c r="F15">
+        <v>1.028461507038398</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.051893921895964</v>
+      </c>
+      <c r="J15">
+        <v>1.034824847908476</v>
+      </c>
+      <c r="K15">
+        <v>1.039928040885249</v>
+      </c>
+      <c r="L15">
+        <v>1.038721775546318</v>
+      </c>
+      <c r="M15">
+        <v>1.042796864667429</v>
+      </c>
+      <c r="N15">
+        <v>1.036294417888575</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>1.009223801081978</v>
+      </c>
+      <c r="D16">
+        <v>1.028139896282857</v>
+      </c>
+      <c r="E16">
+        <v>1.027457181289853</v>
+      </c>
+      <c r="F16">
+        <v>1.031832743793503</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.053269118711349</v>
+      </c>
+      <c r="J16">
+        <v>1.037000549447854</v>
+      </c>
+      <c r="K16">
+        <v>1.041983765167016</v>
+      </c>
+      <c r="L16">
+        <v>1.041312498429624</v>
+      </c>
+      <c r="M16">
+        <v>1.045615026478907</v>
+      </c>
+      <c r="N16">
+        <v>1.038473209173696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>1.01131561261483</v>
+      </c>
+      <c r="D17">
+        <v>1.029748664685777</v>
+      </c>
+      <c r="E17">
+        <v>1.029404075474431</v>
+      </c>
+      <c r="F17">
+        <v>1.033920755709777</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.054116908960054</v>
+      </c>
+      <c r="J17">
+        <v>1.038345787574479</v>
+      </c>
+      <c r="K17">
+        <v>1.043254450565243</v>
+      </c>
+      <c r="L17">
+        <v>1.042915465522392</v>
+      </c>
+      <c r="M17">
+        <v>1.047359069789466</v>
+      </c>
+      <c r="N17">
+        <v>1.039820357692761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>1.0125255763668</v>
+      </c>
+      <c r="D18">
+        <v>1.030679640239973</v>
+      </c>
+      <c r="E18">
+        <v>1.030530945737196</v>
+      </c>
+      <c r="F18">
+        <v>1.035129324044332</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.054606189396912</v>
+      </c>
+      <c r="J18">
+        <v>1.039123593450369</v>
+      </c>
+      <c r="K18">
+        <v>1.043989013578038</v>
+      </c>
+      <c r="L18">
+        <v>1.043842694014053</v>
+      </c>
+      <c r="M18">
+        <v>1.048368031535478</v>
+      </c>
+      <c r="N18">
+        <v>1.040599268142211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.012936448416993</v>
+      </c>
+      <c r="D19">
+        <v>1.03099584391032</v>
+      </c>
+      <c r="E19">
+        <v>1.030913723942275</v>
+      </c>
+      <c r="F19">
+        <v>1.035539857163482</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.054772147225923</v>
+      </c>
+      <c r="J19">
+        <v>1.039387660626273</v>
+      </c>
+      <c r="K19">
+        <v>1.044238376094055</v>
+      </c>
+      <c r="L19">
+        <v>1.044157559627652</v>
+      </c>
+      <c r="M19">
+        <v>1.048710673831481</v>
+      </c>
+      <c r="N19">
+        <v>1.040863710323793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>1.011092238091933</v>
+      </c>
+      <c r="D20">
+        <v>1.029576828151791</v>
+      </c>
+      <c r="E20">
+        <v>1.029196099793755</v>
+      </c>
+      <c r="F20">
+        <v>1.033697703380987</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.054026491898353</v>
+      </c>
+      <c r="J20">
+        <v>1.038202168763735</v>
+      </c>
+      <c r="K20">
+        <v>1.043118805214241</v>
+      </c>
+      <c r="L20">
+        <v>1.042744289277612</v>
+      </c>
+      <c r="M20">
+        <v>1.047172815134232</v>
+      </c>
+      <c r="N20">
+        <v>1.039676534926833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>1.004975031069506</v>
+      </c>
+      <c r="D21">
+        <v>1.024875148580703</v>
+      </c>
+      <c r="E21">
+        <v>1.023507634067509</v>
+      </c>
+      <c r="F21">
+        <v>1.027597012039779</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.051540048806285</v>
+      </c>
+      <c r="J21">
+        <v>1.034266210923854</v>
+      </c>
+      <c r="K21">
+        <v>1.039400096534159</v>
+      </c>
+      <c r="L21">
+        <v>1.038056925851317</v>
+      </c>
+      <c r="M21">
+        <v>1.042073756729653</v>
+      </c>
+      <c r="N21">
+        <v>1.035734987575359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>1.001030691312349</v>
+      </c>
+      <c r="D22">
+        <v>1.021847913482737</v>
+      </c>
+      <c r="E22">
+        <v>1.019846846339599</v>
+      </c>
+      <c r="F22">
+        <v>1.023671023792731</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.04992694022282</v>
+      </c>
+      <c r="J22">
+        <v>1.031725712720249</v>
+      </c>
+      <c r="K22">
+        <v>1.036998637944309</v>
+      </c>
+      <c r="L22">
+        <v>1.035035126488149</v>
+      </c>
+      <c r="M22">
+        <v>1.038787699207515</v>
+      </c>
+      <c r="N22">
+        <v>1.033190881572905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>1.003131311068511</v>
+      </c>
+      <c r="D23">
+        <v>1.023459676379337</v>
+      </c>
+      <c r="E23">
+        <v>1.021795769824683</v>
+      </c>
+      <c r="F23">
+        <v>1.025761130459436</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.050786937695687</v>
+      </c>
+      <c r="J23">
+        <v>1.033078924701993</v>
+      </c>
+      <c r="K23">
+        <v>1.038277897176105</v>
+      </c>
+      <c r="L23">
+        <v>1.036644360749233</v>
+      </c>
+      <c r="M23">
+        <v>1.040537555604031</v>
+      </c>
+      <c r="N23">
+        <v>1.034546015270879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>1.011193202733682</v>
+      </c>
+      <c r="D24">
+        <v>1.029654496480763</v>
+      </c>
+      <c r="E24">
+        <v>1.029290101940359</v>
+      </c>
+      <c r="F24">
+        <v>1.033798519906684</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.054067363583004</v>
+      </c>
+      <c r="J24">
+        <v>1.038267085044005</v>
+      </c>
+      <c r="K24">
+        <v>1.043180117884678</v>
+      </c>
+      <c r="L24">
+        <v>1.042821660369688</v>
+      </c>
+      <c r="M24">
+        <v>1.047257001218972</v>
+      </c>
+      <c r="N24">
+        <v>1.039741543395667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.020153064804487</v>
+      </c>
+      <c r="D25">
+        <v>1.036555183102191</v>
+      </c>
+      <c r="E25">
+        <v>1.037647175660068</v>
+      </c>
+      <c r="F25">
+        <v>1.042761920046615</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.057670453286688</v>
+      </c>
+      <c r="J25">
+        <v>1.044020725041263</v>
+      </c>
+      <c r="K25">
+        <v>1.048611343785841</v>
+      </c>
+      <c r="L25">
+        <v>1.049687883785994</v>
+      </c>
+      <c r="M25">
+        <v>1.05473079432022</v>
+      </c>
+      <c r="N25">
+        <v>1.045503354221673</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.027012220595515</v>
+        <v>1.051607138645891</v>
       </c>
       <c r="D2">
-        <v>1.041848219706648</v>
+        <v>1.053976467529273</v>
       </c>
       <c r="E2">
-        <v>1.044065632376955</v>
+        <v>1.065328757532329</v>
       </c>
       <c r="F2">
-        <v>1.049647050962598</v>
+        <v>1.072894329116391</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060393005776359</v>
+        <v>1.050232964101631</v>
       </c>
       <c r="J2">
-        <v>1.048413962243525</v>
+        <v>1.056634120021556</v>
       </c>
       <c r="K2">
-        <v>1.052753775895833</v>
+        <v>1.056720950572635</v>
       </c>
       <c r="L2">
-        <v>1.054943389983339</v>
+        <v>1.068042292422772</v>
       </c>
       <c r="M2">
-        <v>1.06045548429628</v>
+        <v>1.075587632297378</v>
       </c>
       <c r="N2">
-        <v>1.049902830324673</v>
+        <v>1.058134661669614</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.031840161471143</v>
+        <v>1.052613162085364</v>
       </c>
       <c r="D3">
-        <v>1.045578660739247</v>
+        <v>1.054765538461226</v>
       </c>
       <c r="E3">
-        <v>1.048594664058657</v>
+        <v>1.066326987737245</v>
       </c>
       <c r="F3">
-        <v>1.054506140364059</v>
+        <v>1.073973639687318</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062287885278064</v>
+        <v>1.050560047362555</v>
       </c>
       <c r="J3">
-        <v>1.051498923961013</v>
+        <v>1.057290019038901</v>
       </c>
       <c r="K3">
-        <v>1.055659767213876</v>
+        <v>1.057323234718844</v>
       </c>
       <c r="L3">
-        <v>1.058641346982012</v>
+        <v>1.068855443175282</v>
       </c>
       <c r="M3">
-        <v>1.064486055361178</v>
+        <v>1.076483127765512</v>
       </c>
       <c r="N3">
-        <v>1.05299217304165</v>
+        <v>1.058791492138796</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.034897905775667</v>
+        <v>1.05326438819288</v>
       </c>
       <c r="D4">
-        <v>1.047943214626537</v>
+        <v>1.055276255837048</v>
       </c>
       <c r="E4">
-        <v>1.051468101019304</v>
+        <v>1.066973532967095</v>
       </c>
       <c r="F4">
-        <v>1.057589390220344</v>
+        <v>1.074672790812129</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063477833336828</v>
+        <v>1.050770530214602</v>
       </c>
       <c r="J4">
-        <v>1.053449169949439</v>
+        <v>1.057714071214058</v>
       </c>
       <c r="K4">
-        <v>1.057495493843496</v>
+        <v>1.057712430739753</v>
       </c>
       <c r="L4">
-        <v>1.0609826349242</v>
+        <v>1.069381612300978</v>
       </c>
       <c r="M4">
-        <v>1.067039106955462</v>
+        <v>1.077062735524225</v>
       </c>
       <c r="N4">
-        <v>1.054945188603076</v>
+        <v>1.059216146516682</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.036168113773273</v>
+        <v>1.053538225949862</v>
       </c>
       <c r="D5">
-        <v>1.048925875693552</v>
+        <v>1.055490993082424</v>
       </c>
       <c r="E5">
-        <v>1.052662917127148</v>
+        <v>1.067245489191698</v>
       </c>
       <c r="F5">
-        <v>1.058871555570388</v>
+        <v>1.074966896492501</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063969672429841</v>
+        <v>1.050858738729626</v>
       </c>
       <c r="J5">
-        <v>1.054258421880708</v>
+        <v>1.057892256469196</v>
       </c>
       <c r="K5">
-        <v>1.058256886874344</v>
+        <v>1.057875923211735</v>
       </c>
       <c r="L5">
-        <v>1.061955001309079</v>
+        <v>1.069602814733971</v>
       </c>
       <c r="M5">
-        <v>1.068099707767241</v>
+        <v>1.07730644092917</v>
       </c>
       <c r="N5">
-        <v>1.05575558976491</v>
+        <v>1.05939458481532</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.036380508672257</v>
+        <v>1.053584208157725</v>
       </c>
       <c r="D6">
-        <v>1.049090211794526</v>
+        <v>1.055527050243269</v>
       </c>
       <c r="E6">
-        <v>1.052862773512759</v>
+        <v>1.067291160533743</v>
       </c>
       <c r="F6">
-        <v>1.059086029290268</v>
+        <v>1.075016288817735</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064051767741719</v>
+        <v>1.050873532988297</v>
       </c>
       <c r="J6">
-        <v>1.054393685645708</v>
+        <v>1.057922169483934</v>
       </c>
       <c r="K6">
-        <v>1.05838413098977</v>
+        <v>1.057903366939948</v>
       </c>
       <c r="L6">
-        <v>1.062117579439371</v>
+        <v>1.069639955634418</v>
       </c>
       <c r="M6">
-        <v>1.068277055509876</v>
+        <v>1.077347362369097</v>
       </c>
       <c r="N6">
-        <v>1.055891045619971</v>
+        <v>1.05942454030997</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.034914937584819</v>
+        <v>1.053268046982005</v>
       </c>
       <c r="D7">
-        <v>1.047956389256827</v>
+        <v>1.055279125043265</v>
       </c>
       <c r="E7">
-        <v>1.051484117336554</v>
+        <v>1.066977166276368</v>
       </c>
       <c r="F7">
-        <v>1.05760657701082</v>
+        <v>1.074676719950077</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063484438067461</v>
+        <v>1.050771709955707</v>
       </c>
       <c r="J7">
-        <v>1.053460024518897</v>
+        <v>1.057716452473785</v>
       </c>
       <c r="K7">
-        <v>1.057505707829406</v>
+        <v>1.057714615828111</v>
       </c>
       <c r="L7">
-        <v>1.06099567398408</v>
+        <v>1.069384568015737</v>
       </c>
       <c r="M7">
-        <v>1.067053328068229</v>
+        <v>1.077065991777954</v>
       </c>
       <c r="N7">
-        <v>1.054956058587267</v>
+        <v>1.05921853115807</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.028657932551435</v>
+        <v>1.051947074589166</v>
       </c>
       <c r="D8">
-        <v>1.043119395047074</v>
+        <v>1.054243109144073</v>
       </c>
       <c r="E8">
-        <v>1.045608385416522</v>
+        <v>1.065665984595062</v>
       </c>
       <c r="F8">
-        <v>1.051302153128806</v>
+        <v>1.073258928415302</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061041028046769</v>
+        <v>1.050343743806545</v>
       </c>
       <c r="J8">
-        <v>1.049466275293665</v>
+        <v>1.056855858068508</v>
       </c>
       <c r="K8">
-        <v>1.05374532448212</v>
+        <v>1.056924603095295</v>
       </c>
       <c r="L8">
-        <v>1.056204067409666</v>
+        <v>1.068317098905412</v>
       </c>
       <c r="M8">
-        <v>1.061829309663641</v>
+        <v>1.075890235241991</v>
       </c>
       <c r="N8">
-        <v>1.050956637780046</v>
+        <v>1.058356714610027</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.017096450317535</v>
+        <v>1.049621371482729</v>
       </c>
       <c r="D9">
-        <v>1.03419926630834</v>
+        <v>1.052418592704015</v>
       </c>
       <c r="E9">
-        <v>1.034792812938514</v>
+        <v>1.063360319722098</v>
       </c>
       <c r="F9">
-        <v>1.03970033441828</v>
+        <v>1.070766483900575</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056446824678987</v>
+        <v>1.049580728021646</v>
       </c>
       <c r="J9">
-        <v>1.042059604782215</v>
+        <v>1.055336657736073</v>
       </c>
       <c r="K9">
-        <v>1.04676082453052</v>
+        <v>1.055528524983474</v>
       </c>
       <c r="L9">
-        <v>1.047345540783369</v>
+        <v>1.066436153889495</v>
       </c>
       <c r="M9">
-        <v>1.052180542035362</v>
+        <v>1.073819669402778</v>
       </c>
       <c r="N9">
-        <v>1.043539448946913</v>
+        <v>1.056835356838864</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.008986010479216</v>
+        <v>1.048072278033653</v>
       </c>
       <c r="D10">
-        <v>1.027957075175845</v>
+        <v>1.051203019581938</v>
       </c>
       <c r="E10">
-        <v>1.027235965245491</v>
+        <v>1.061826477750621</v>
       </c>
       <c r="F10">
-        <v>1.03159549548601</v>
+        <v>1.069108844407342</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053172594882143</v>
+        <v>1.049066095045526</v>
       </c>
       <c r="J10">
-        <v>1.03684758460127</v>
+        <v>1.054322054173479</v>
       </c>
       <c r="K10">
-        <v>1.041839259152849</v>
+        <v>1.054595164693881</v>
       </c>
       <c r="L10">
-        <v>1.041130282833628</v>
+        <v>1.065182270015744</v>
       </c>
       <c r="M10">
-        <v>1.045416791584118</v>
+        <v>1.072440175176468</v>
       </c>
       <c r="N10">
-        <v>1.038320027099484</v>
+        <v>1.055819312422836</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.005368178774521</v>
+        <v>1.047401832656646</v>
       </c>
       <c r="D11">
-        <v>1.025177076604957</v>
+        <v>1.050676855517628</v>
       </c>
       <c r="E11">
-        <v>1.023872821982126</v>
+        <v>1.061163089637022</v>
       </c>
       <c r="F11">
-        <v>1.027988657688812</v>
+        <v>1.068392020938501</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051700426197379</v>
+        <v>1.048841844076087</v>
       </c>
       <c r="J11">
-        <v>1.034519327970686</v>
+        <v>1.05388229720118</v>
       </c>
       <c r="K11">
-        <v>1.039639312344836</v>
+        <v>1.054190388894369</v>
       </c>
       <c r="L11">
-        <v>1.038358150326532</v>
+        <v>1.06463934929551</v>
       </c>
       <c r="M11">
-        <v>1.042401370991288</v>
+        <v>1.071843054273945</v>
       </c>
       <c r="N11">
-        <v>1.03598846407743</v>
+        <v>1.055378930945195</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.004007472629638</v>
+        <v>1.04715284796037</v>
       </c>
       <c r="D12">
-        <v>1.02413223350166</v>
+        <v>1.050481443586054</v>
       </c>
       <c r="E12">
-        <v>1.022609120955861</v>
+        <v>1.060916794790172</v>
       </c>
       <c r="F12">
-        <v>1.02663340425462</v>
+        <v>1.068125903244618</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051145030171184</v>
+        <v>1.048758335440201</v>
       </c>
       <c r="J12">
-        <v>1.033643192080096</v>
+        <v>1.053718888099665</v>
       </c>
       <c r="K12">
-        <v>1.038811255679297</v>
+        <v>1.054039943719763</v>
       </c>
       <c r="L12">
-        <v>1.037315616863311</v>
+        <v>1.064437687671956</v>
       </c>
       <c r="M12">
-        <v>1.041267540273151</v>
+        <v>1.071621288811012</v>
       </c>
       <c r="N12">
-        <v>1.035111083973381</v>
+        <v>1.055215289784012</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.004300128966786</v>
+        <v>1.047206253822722</v>
       </c>
       <c r="D13">
-        <v>1.024356920135189</v>
+        <v>1.050523358792616</v>
       </c>
       <c r="E13">
-        <v>1.022880858060911</v>
+        <v>1.060969620566497</v>
       </c>
       <c r="F13">
-        <v>1.026924827614875</v>
+        <v>1.068182979939839</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051264558821074</v>
+        <v>1.048776257908768</v>
       </c>
       <c r="J13">
-        <v>1.033831648285128</v>
+        <v>1.053753942787099</v>
       </c>
       <c r="K13">
-        <v>1.038989379120538</v>
+        <v>1.054072218941036</v>
       </c>
       <c r="L13">
-        <v>1.037539836486634</v>
+        <v>1.064480944618571</v>
       </c>
       <c r="M13">
-        <v>1.041511386526206</v>
+        <v>1.071668856808961</v>
       </c>
       <c r="N13">
-        <v>1.03529980780784</v>
+        <v>1.055250394253123</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.005256052609332</v>
+        <v>1.047381250512344</v>
       </c>
       <c r="D14">
-        <v>1.02509096289916</v>
+        <v>1.050660702114147</v>
       </c>
       <c r="E14">
-        <v>1.023768664353961</v>
+        <v>1.061142728437673</v>
       </c>
       <c r="F14">
-        <v>1.027876953817141</v>
+        <v>1.0683700206583</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051654694132232</v>
+        <v>1.048834945546404</v>
       </c>
       <c r="J14">
-        <v>1.034447140740386</v>
+        <v>1.053868791052911</v>
       </c>
       <c r="K14">
-        <v>1.039571090578353</v>
+        <v>1.054177954952584</v>
       </c>
       <c r="L14">
-        <v>1.038272240279771</v>
+        <v>1.064622679812985</v>
       </c>
       <c r="M14">
-        <v>1.042307933602417</v>
+        <v>1.071824722420027</v>
       </c>
       <c r="N14">
-        <v>1.035916174332983</v>
+        <v>1.055365405616646</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.005842761565075</v>
+        <v>1.047489078188646</v>
       </c>
       <c r="D15">
-        <v>1.025541590423595</v>
+        <v>1.050745327709067</v>
       </c>
       <c r="E15">
-        <v>1.02431372708801</v>
+        <v>1.06124940143419</v>
       </c>
       <c r="F15">
-        <v>1.028461507038398</v>
+        <v>1.068485281508134</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051893921895964</v>
+        <v>1.048871076872525</v>
       </c>
       <c r="J15">
-        <v>1.034824847908476</v>
+        <v>1.05393954441906</v>
       </c>
       <c r="K15">
-        <v>1.039928040885249</v>
+        <v>1.054243090032695</v>
       </c>
       <c r="L15">
-        <v>1.038721775546318</v>
+        <v>1.064710007994447</v>
       </c>
       <c r="M15">
-        <v>1.042796864667429</v>
+        <v>1.071920760596554</v>
       </c>
       <c r="N15">
-        <v>1.036294417888575</v>
+        <v>1.05543625946069</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.009223801081978</v>
+        <v>1.04811678008821</v>
       </c>
       <c r="D16">
-        <v>1.028139896282857</v>
+        <v>1.051237943361569</v>
       </c>
       <c r="E16">
-        <v>1.027457181289853</v>
+        <v>1.061870521019288</v>
       </c>
       <c r="F16">
-        <v>1.031832743793503</v>
+        <v>1.069156437574466</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053269118711349</v>
+        <v>1.049080948123962</v>
       </c>
       <c r="J16">
-        <v>1.037000549447854</v>
+        <v>1.054351230431102</v>
       </c>
       <c r="K16">
-        <v>1.041983765167016</v>
+        <v>1.054622015206432</v>
       </c>
       <c r="L16">
-        <v>1.041312498429624</v>
+        <v>1.065218302316852</v>
       </c>
       <c r="M16">
-        <v>1.045615026478907</v>
+        <v>1.072479808565628</v>
       </c>
       <c r="N16">
-        <v>1.038473209173696</v>
+        <v>1.05584853011409</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.01131561261483</v>
+        <v>1.048510607298407</v>
       </c>
       <c r="D17">
-        <v>1.029748664685777</v>
+        <v>1.051546998748777</v>
       </c>
       <c r="E17">
-        <v>1.029404075474431</v>
+        <v>1.06226034093231</v>
       </c>
       <c r="F17">
-        <v>1.033920755709777</v>
+        <v>1.069577689446682</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054116908960054</v>
+        <v>1.049212217072609</v>
       </c>
       <c r="J17">
-        <v>1.038345787574479</v>
+        <v>1.054609356141067</v>
       </c>
       <c r="K17">
-        <v>1.043254450565243</v>
+        <v>1.054859538023408</v>
       </c>
       <c r="L17">
-        <v>1.042915465522392</v>
+        <v>1.06553714736465</v>
       </c>
       <c r="M17">
-        <v>1.047359069789466</v>
+        <v>1.072830540875125</v>
       </c>
       <c r="N17">
-        <v>1.039820357692761</v>
+        <v>1.056107022392171</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.0125255763668</v>
+        <v>1.048740351135247</v>
       </c>
       <c r="D18">
-        <v>1.030679640239973</v>
+        <v>1.051727283533534</v>
       </c>
       <c r="E18">
-        <v>1.030530945737196</v>
+        <v>1.06248779109018</v>
       </c>
       <c r="F18">
-        <v>1.035129324044332</v>
+        <v>1.069823489722404</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054606189396912</v>
+        <v>1.049288647825783</v>
       </c>
       <c r="J18">
-        <v>1.039123593450369</v>
+        <v>1.054759875283295</v>
       </c>
       <c r="K18">
-        <v>1.043989013578038</v>
+        <v>1.054998020767226</v>
       </c>
       <c r="L18">
-        <v>1.043842694014053</v>
+        <v>1.065723126118369</v>
       </c>
       <c r="M18">
-        <v>1.048368031535478</v>
+        <v>1.073035137255379</v>
       </c>
       <c r="N18">
-        <v>1.040599268142211</v>
+        <v>1.056257755288846</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.012936448416993</v>
+        <v>1.048818693115243</v>
       </c>
       <c r="D19">
-        <v>1.03099584391032</v>
+        <v>1.051788759018518</v>
       </c>
       <c r="E19">
-        <v>1.030913723942275</v>
+        <v>1.062565358387601</v>
       </c>
       <c r="F19">
-        <v>1.035539857163482</v>
+        <v>1.069907316718083</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054772147225923</v>
+        <v>1.049314685628305</v>
       </c>
       <c r="J19">
-        <v>1.039387660626273</v>
+        <v>1.054811191418945</v>
       </c>
       <c r="K19">
-        <v>1.044238376094055</v>
+        <v>1.055045229563895</v>
       </c>
       <c r="L19">
-        <v>1.044157559627652</v>
+        <v>1.065786540365527</v>
       </c>
       <c r="M19">
-        <v>1.048710673831481</v>
+        <v>1.073104902740923</v>
       </c>
       <c r="N19">
-        <v>1.040863710323793</v>
+        <v>1.056309144299295</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.011092238091933</v>
+        <v>1.048468350149166</v>
       </c>
       <c r="D20">
-        <v>1.029576828151791</v>
+        <v>1.051513838162902</v>
       </c>
       <c r="E20">
-        <v>1.029196099793755</v>
+        <v>1.062218509204389</v>
       </c>
       <c r="F20">
-        <v>1.033697703380987</v>
+        <v>1.069532483672549</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054026491898353</v>
+        <v>1.049198147243296</v>
       </c>
       <c r="J20">
-        <v>1.038202168763735</v>
+        <v>1.0545816659559</v>
       </c>
       <c r="K20">
-        <v>1.043118805214241</v>
+        <v>1.054834060306699</v>
       </c>
       <c r="L20">
-        <v>1.042744289277612</v>
+        <v>1.065502938116044</v>
       </c>
       <c r="M20">
-        <v>1.047172815134232</v>
+        <v>1.072792908529633</v>
       </c>
       <c r="N20">
-        <v>1.039676534926833</v>
+        <v>1.056079292883765</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.004975031069506</v>
+        <v>1.047329717007015</v>
       </c>
       <c r="D21">
-        <v>1.024875148580703</v>
+        <v>1.050620257127558</v>
       </c>
       <c r="E21">
-        <v>1.023507634067509</v>
+        <v>1.06109174924931</v>
       </c>
       <c r="F21">
-        <v>1.027597012039779</v>
+        <v>1.06831493789256</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051540048806285</v>
+        <v>1.04881766934594</v>
       </c>
       <c r="J21">
-        <v>1.034266210923854</v>
+        <v>1.053834972858932</v>
       </c>
       <c r="K21">
-        <v>1.039400096534159</v>
+        <v>1.054146820908016</v>
       </c>
       <c r="L21">
-        <v>1.038056925851317</v>
+        <v>1.064580942236331</v>
       </c>
       <c r="M21">
-        <v>1.042073756729653</v>
+        <v>1.071778823000628</v>
       </c>
       <c r="N21">
-        <v>1.035734987575359</v>
+        <v>1.055331539396952</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.001030691312349</v>
+        <v>1.04661409423521</v>
       </c>
       <c r="D22">
-        <v>1.021847913482737</v>
+        <v>1.050058594417527</v>
       </c>
       <c r="E22">
-        <v>1.019846846339599</v>
+        <v>1.060383987934478</v>
       </c>
       <c r="F22">
-        <v>1.023671023792731</v>
+        <v>1.067550242974868</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04992694022282</v>
+        <v>1.048577222254689</v>
       </c>
       <c r="J22">
-        <v>1.031725712720249</v>
+        <v>1.053365128430904</v>
       </c>
       <c r="K22">
-        <v>1.036998637944309</v>
+        <v>1.053714185933626</v>
       </c>
       <c r="L22">
-        <v>1.035035126488149</v>
+        <v>1.064001266162554</v>
       </c>
       <c r="M22">
-        <v>1.038787699207515</v>
+        <v>1.071141411520291</v>
       </c>
       <c r="N22">
-        <v>1.033190881572905</v>
+        <v>1.054861027735945</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.003131311068511</v>
+        <v>1.046993432714015</v>
       </c>
       <c r="D23">
-        <v>1.023459676379337</v>
+        <v>1.0503563263635</v>
       </c>
       <c r="E23">
-        <v>1.021795769824683</v>
+        <v>1.06075912121785</v>
       </c>
       <c r="F23">
-        <v>1.025761130459436</v>
+        <v>1.067955543928217</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050786937695687</v>
+        <v>1.048704803899633</v>
       </c>
       <c r="J23">
-        <v>1.033078924701993</v>
+        <v>1.053614236692985</v>
       </c>
       <c r="K23">
-        <v>1.038277897176105</v>
+        <v>1.053943584990178</v>
       </c>
       <c r="L23">
-        <v>1.036644360749233</v>
+        <v>1.064308561447177</v>
       </c>
       <c r="M23">
-        <v>1.040537555604031</v>
+        <v>1.071479297799444</v>
       </c>
       <c r="N23">
-        <v>1.034546015270879</v>
+        <v>1.055110489760331</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.011193202733682</v>
+        <v>1.048487444239814</v>
       </c>
       <c r="D24">
-        <v>1.029654496480763</v>
+        <v>1.05152882194866</v>
       </c>
       <c r="E24">
-        <v>1.029290101940359</v>
+        <v>1.062237410930467</v>
       </c>
       <c r="F24">
-        <v>1.033798519906684</v>
+        <v>1.069552909934219</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054067363583004</v>
+        <v>1.049204505214352</v>
       </c>
       <c r="J24">
-        <v>1.038267085044005</v>
+        <v>1.054594178085987</v>
       </c>
       <c r="K24">
-        <v>1.043180117884678</v>
+        <v>1.054845572776491</v>
       </c>
       <c r="L24">
-        <v>1.042821660369688</v>
+        <v>1.065518395797271</v>
       </c>
       <c r="M24">
-        <v>1.047257001218972</v>
+        <v>1.072809912904363</v>
       </c>
       <c r="N24">
-        <v>1.039741543395667</v>
+        <v>1.056091822782512</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.020153064804487</v>
+        <v>1.05022238039784</v>
       </c>
       <c r="D25">
-        <v>1.036555183102191</v>
+        <v>1.052890141510291</v>
       </c>
       <c r="E25">
-        <v>1.037647175660068</v>
+        <v>1.063955816113539</v>
       </c>
       <c r="F25">
-        <v>1.042761920046615</v>
+        <v>1.071410139698424</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057670453286688</v>
+        <v>1.049779036952518</v>
       </c>
       <c r="J25">
-        <v>1.044020725041263</v>
+        <v>1.055729727306706</v>
       </c>
       <c r="K25">
-        <v>1.048611343785841</v>
+        <v>1.055889912493253</v>
       </c>
       <c r="L25">
-        <v>1.049687883785994</v>
+        <v>1.066922411540279</v>
       </c>
       <c r="M25">
-        <v>1.05473079432022</v>
+        <v>1.074354806939047</v>
       </c>
       <c r="N25">
-        <v>1.045503354221673</v>
+        <v>1.057228984613373</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.051607138645891</v>
+        <v>1.027012220595513</v>
       </c>
       <c r="D2">
-        <v>1.053976467529273</v>
+        <v>1.041848219706646</v>
       </c>
       <c r="E2">
-        <v>1.065328757532329</v>
+        <v>1.044065632376952</v>
       </c>
       <c r="F2">
-        <v>1.072894329116391</v>
+        <v>1.049647050962595</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050232964101631</v>
+        <v>1.060393005776357</v>
       </c>
       <c r="J2">
-        <v>1.056634120021556</v>
+        <v>1.048413962243523</v>
       </c>
       <c r="K2">
-        <v>1.056720950572635</v>
+        <v>1.052753775895831</v>
       </c>
       <c r="L2">
-        <v>1.068042292422772</v>
+        <v>1.054943389983336</v>
       </c>
       <c r="M2">
-        <v>1.075587632297378</v>
+        <v>1.060455484296277</v>
       </c>
       <c r="N2">
-        <v>1.058134661669614</v>
+        <v>1.049902830324671</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052613162085364</v>
+        <v>1.031840161471144</v>
       </c>
       <c r="D3">
-        <v>1.054765538461226</v>
+        <v>1.045578660739248</v>
       </c>
       <c r="E3">
-        <v>1.066326987737245</v>
+        <v>1.048594664058658</v>
       </c>
       <c r="F3">
-        <v>1.073973639687318</v>
+        <v>1.05450614036406</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050560047362555</v>
+        <v>1.062287885278064</v>
       </c>
       <c r="J3">
-        <v>1.057290019038901</v>
+        <v>1.051498923961014</v>
       </c>
       <c r="K3">
-        <v>1.057323234718844</v>
+        <v>1.055659767213876</v>
       </c>
       <c r="L3">
-        <v>1.068855443175282</v>
+        <v>1.058641346982014</v>
       </c>
       <c r="M3">
-        <v>1.076483127765512</v>
+        <v>1.064486055361179</v>
       </c>
       <c r="N3">
-        <v>1.058791492138796</v>
+        <v>1.052992173041651</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05326438819288</v>
+        <v>1.034897905775666</v>
       </c>
       <c r="D4">
-        <v>1.055276255837048</v>
+        <v>1.047943214626537</v>
       </c>
       <c r="E4">
-        <v>1.066973532967095</v>
+        <v>1.051468101019304</v>
       </c>
       <c r="F4">
-        <v>1.074672790812129</v>
+        <v>1.057589390220344</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050770530214602</v>
+        <v>1.063477833336828</v>
       </c>
       <c r="J4">
-        <v>1.057714071214058</v>
+        <v>1.053449169949439</v>
       </c>
       <c r="K4">
-        <v>1.057712430739753</v>
+        <v>1.057495493843496</v>
       </c>
       <c r="L4">
-        <v>1.069381612300978</v>
+        <v>1.0609826349242</v>
       </c>
       <c r="M4">
-        <v>1.077062735524225</v>
+        <v>1.067039106955462</v>
       </c>
       <c r="N4">
-        <v>1.059216146516682</v>
+        <v>1.054945188603076</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053538225949862</v>
+        <v>1.036168113773273</v>
       </c>
       <c r="D5">
-        <v>1.055490993082424</v>
+        <v>1.048925875693552</v>
       </c>
       <c r="E5">
-        <v>1.067245489191698</v>
+        <v>1.052662917127149</v>
       </c>
       <c r="F5">
-        <v>1.074966896492501</v>
+        <v>1.058871555570389</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050858738729626</v>
+        <v>1.063969672429842</v>
       </c>
       <c r="J5">
-        <v>1.057892256469196</v>
+        <v>1.054258421880709</v>
       </c>
       <c r="K5">
-        <v>1.057875923211735</v>
+        <v>1.058256886874344</v>
       </c>
       <c r="L5">
-        <v>1.069602814733971</v>
+        <v>1.061955001309079</v>
       </c>
       <c r="M5">
-        <v>1.07730644092917</v>
+        <v>1.068099707767241</v>
       </c>
       <c r="N5">
-        <v>1.05939458481532</v>
+        <v>1.05575558976491</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053584208157725</v>
+        <v>1.036380508672257</v>
       </c>
       <c r="D6">
-        <v>1.055527050243269</v>
+        <v>1.049090211794526</v>
       </c>
       <c r="E6">
-        <v>1.067291160533743</v>
+        <v>1.052862773512759</v>
       </c>
       <c r="F6">
-        <v>1.075016288817735</v>
+        <v>1.059086029290267</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050873532988297</v>
+        <v>1.064051767741719</v>
       </c>
       <c r="J6">
-        <v>1.057922169483934</v>
+        <v>1.054393685645708</v>
       </c>
       <c r="K6">
-        <v>1.057903366939948</v>
+        <v>1.058384130989769</v>
       </c>
       <c r="L6">
-        <v>1.069639955634418</v>
+        <v>1.062117579439371</v>
       </c>
       <c r="M6">
-        <v>1.077347362369097</v>
+        <v>1.068277055509876</v>
       </c>
       <c r="N6">
-        <v>1.05942454030997</v>
+        <v>1.055891045619971</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053268046982005</v>
+        <v>1.034914937584818</v>
       </c>
       <c r="D7">
-        <v>1.055279125043265</v>
+        <v>1.047956389256827</v>
       </c>
       <c r="E7">
-        <v>1.066977166276368</v>
+        <v>1.051484117336553</v>
       </c>
       <c r="F7">
-        <v>1.074676719950077</v>
+        <v>1.05760657701082</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050771709955707</v>
+        <v>1.06348443806746</v>
       </c>
       <c r="J7">
-        <v>1.057716452473785</v>
+        <v>1.053460024518896</v>
       </c>
       <c r="K7">
-        <v>1.057714615828111</v>
+        <v>1.057505707829406</v>
       </c>
       <c r="L7">
-        <v>1.069384568015737</v>
+        <v>1.06099567398408</v>
       </c>
       <c r="M7">
-        <v>1.077065991777954</v>
+        <v>1.067053328068228</v>
       </c>
       <c r="N7">
-        <v>1.05921853115807</v>
+        <v>1.054956058587267</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.051947074589166</v>
+        <v>1.028657932551434</v>
       </c>
       <c r="D8">
-        <v>1.054243109144073</v>
+        <v>1.043119395047074</v>
       </c>
       <c r="E8">
-        <v>1.065665984595062</v>
+        <v>1.045608385416521</v>
       </c>
       <c r="F8">
-        <v>1.073258928415302</v>
+        <v>1.051302153128805</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050343743806545</v>
+        <v>1.061041028046769</v>
       </c>
       <c r="J8">
-        <v>1.056855858068508</v>
+        <v>1.049466275293665</v>
       </c>
       <c r="K8">
-        <v>1.056924603095295</v>
+        <v>1.053745324482119</v>
       </c>
       <c r="L8">
-        <v>1.068317098905412</v>
+        <v>1.056204067409665</v>
       </c>
       <c r="M8">
-        <v>1.075890235241991</v>
+        <v>1.06182930966364</v>
       </c>
       <c r="N8">
-        <v>1.058356714610027</v>
+        <v>1.050956637780046</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.049621371482729</v>
+        <v>1.017096450317534</v>
       </c>
       <c r="D9">
-        <v>1.052418592704015</v>
+        <v>1.03419926630834</v>
       </c>
       <c r="E9">
-        <v>1.063360319722098</v>
+        <v>1.034792812938514</v>
       </c>
       <c r="F9">
-        <v>1.070766483900575</v>
+        <v>1.03970033441828</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049580728021646</v>
+        <v>1.056446824678987</v>
       </c>
       <c r="J9">
-        <v>1.055336657736073</v>
+        <v>1.042059604782215</v>
       </c>
       <c r="K9">
-        <v>1.055528524983474</v>
+        <v>1.046760824530519</v>
       </c>
       <c r="L9">
-        <v>1.066436153889495</v>
+        <v>1.047345540783369</v>
       </c>
       <c r="M9">
-        <v>1.073819669402778</v>
+        <v>1.052180542035362</v>
       </c>
       <c r="N9">
-        <v>1.056835356838864</v>
+        <v>1.043539448946913</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048072278033653</v>
+        <v>1.008986010479215</v>
       </c>
       <c r="D10">
-        <v>1.051203019581938</v>
+        <v>1.027957075175844</v>
       </c>
       <c r="E10">
-        <v>1.061826477750621</v>
+        <v>1.02723596524549</v>
       </c>
       <c r="F10">
-        <v>1.069108844407342</v>
+        <v>1.031595495486009</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049066095045526</v>
+        <v>1.053172594882142</v>
       </c>
       <c r="J10">
-        <v>1.054322054173479</v>
+        <v>1.036847584601269</v>
       </c>
       <c r="K10">
-        <v>1.054595164693881</v>
+        <v>1.041839259152848</v>
       </c>
       <c r="L10">
-        <v>1.065182270015744</v>
+        <v>1.041130282833627</v>
       </c>
       <c r="M10">
-        <v>1.072440175176468</v>
+        <v>1.045416791584117</v>
       </c>
       <c r="N10">
-        <v>1.055819312422836</v>
+        <v>1.038320027099483</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047401832656646</v>
+        <v>1.005368178774521</v>
       </c>
       <c r="D11">
-        <v>1.050676855517628</v>
+        <v>1.025177076604957</v>
       </c>
       <c r="E11">
-        <v>1.061163089637022</v>
+        <v>1.023872821982126</v>
       </c>
       <c r="F11">
-        <v>1.068392020938501</v>
+        <v>1.027988657688812</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048841844076087</v>
+        <v>1.051700426197379</v>
       </c>
       <c r="J11">
-        <v>1.05388229720118</v>
+        <v>1.034519327970685</v>
       </c>
       <c r="K11">
-        <v>1.054190388894369</v>
+        <v>1.039639312344835</v>
       </c>
       <c r="L11">
-        <v>1.06463934929551</v>
+        <v>1.038358150326532</v>
       </c>
       <c r="M11">
-        <v>1.071843054273945</v>
+        <v>1.042401370991288</v>
       </c>
       <c r="N11">
-        <v>1.055378930945195</v>
+        <v>1.03598846407743</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04715284796037</v>
+        <v>1.004007472629638</v>
       </c>
       <c r="D12">
-        <v>1.050481443586054</v>
+        <v>1.024132233501661</v>
       </c>
       <c r="E12">
-        <v>1.060916794790172</v>
+        <v>1.022609120955862</v>
       </c>
       <c r="F12">
-        <v>1.068125903244618</v>
+        <v>1.026633404254621</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048758335440201</v>
+        <v>1.051145030171185</v>
       </c>
       <c r="J12">
-        <v>1.053718888099665</v>
+        <v>1.033643192080096</v>
       </c>
       <c r="K12">
-        <v>1.054039943719763</v>
+        <v>1.038811255679298</v>
       </c>
       <c r="L12">
-        <v>1.064437687671956</v>
+        <v>1.037315616863312</v>
       </c>
       <c r="M12">
-        <v>1.071621288811012</v>
+        <v>1.041267540273152</v>
       </c>
       <c r="N12">
-        <v>1.055215289784012</v>
+        <v>1.035111083973381</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.047206253822722</v>
+        <v>1.004300128966786</v>
       </c>
       <c r="D13">
-        <v>1.050523358792616</v>
+        <v>1.024356920135188</v>
       </c>
       <c r="E13">
-        <v>1.060969620566497</v>
+        <v>1.022880858060911</v>
       </c>
       <c r="F13">
-        <v>1.068182979939839</v>
+        <v>1.026924827614875</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048776257908768</v>
+        <v>1.051264558821074</v>
       </c>
       <c r="J13">
-        <v>1.053753942787099</v>
+        <v>1.033831648285128</v>
       </c>
       <c r="K13">
-        <v>1.054072218941036</v>
+        <v>1.038989379120538</v>
       </c>
       <c r="L13">
-        <v>1.064480944618571</v>
+        <v>1.037539836486634</v>
       </c>
       <c r="M13">
-        <v>1.071668856808961</v>
+        <v>1.041511386526207</v>
       </c>
       <c r="N13">
-        <v>1.055250394253123</v>
+        <v>1.03529980780784</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047381250512344</v>
+        <v>1.005256052609332</v>
       </c>
       <c r="D14">
-        <v>1.050660702114147</v>
+        <v>1.02509096289916</v>
       </c>
       <c r="E14">
-        <v>1.061142728437673</v>
+        <v>1.023768664353961</v>
       </c>
       <c r="F14">
-        <v>1.0683700206583</v>
+        <v>1.02787695381714</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048834945546404</v>
+        <v>1.051654694132232</v>
       </c>
       <c r="J14">
-        <v>1.053868791052911</v>
+        <v>1.034447140740387</v>
       </c>
       <c r="K14">
-        <v>1.054177954952584</v>
+        <v>1.039571090578352</v>
       </c>
       <c r="L14">
-        <v>1.064622679812985</v>
+        <v>1.03827224027977</v>
       </c>
       <c r="M14">
-        <v>1.071824722420027</v>
+        <v>1.042307933602417</v>
       </c>
       <c r="N14">
-        <v>1.055365405616646</v>
+        <v>1.035916174332983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047489078188646</v>
+        <v>1.005842761565076</v>
       </c>
       <c r="D15">
-        <v>1.050745327709067</v>
+        <v>1.025541590423595</v>
       </c>
       <c r="E15">
-        <v>1.06124940143419</v>
+        <v>1.024313727088011</v>
       </c>
       <c r="F15">
-        <v>1.068485281508134</v>
+        <v>1.028461507038399</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048871076872525</v>
+        <v>1.051893921895964</v>
       </c>
       <c r="J15">
-        <v>1.05393954441906</v>
+        <v>1.034824847908476</v>
       </c>
       <c r="K15">
-        <v>1.054243090032695</v>
+        <v>1.039928040885249</v>
       </c>
       <c r="L15">
-        <v>1.064710007994447</v>
+        <v>1.038721775546319</v>
       </c>
       <c r="M15">
-        <v>1.071920760596554</v>
+        <v>1.042796864667429</v>
       </c>
       <c r="N15">
-        <v>1.05543625946069</v>
+        <v>1.036294417888575</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.04811678008821</v>
+        <v>1.009223801081977</v>
       </c>
       <c r="D16">
-        <v>1.051237943361569</v>
+        <v>1.028139896282856</v>
       </c>
       <c r="E16">
-        <v>1.061870521019288</v>
+        <v>1.027457181289852</v>
       </c>
       <c r="F16">
-        <v>1.069156437574466</v>
+        <v>1.031832743793502</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049080948123962</v>
+        <v>1.053269118711348</v>
       </c>
       <c r="J16">
-        <v>1.054351230431102</v>
+        <v>1.037000549447854</v>
       </c>
       <c r="K16">
-        <v>1.054622015206432</v>
+        <v>1.041983765167015</v>
       </c>
       <c r="L16">
-        <v>1.065218302316852</v>
+        <v>1.041312498429623</v>
       </c>
       <c r="M16">
-        <v>1.072479808565628</v>
+        <v>1.045615026478906</v>
       </c>
       <c r="N16">
-        <v>1.05584853011409</v>
+        <v>1.038473209173695</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048510607298407</v>
+        <v>1.011315612614828</v>
       </c>
       <c r="D17">
-        <v>1.051546998748777</v>
+        <v>1.029748664685775</v>
       </c>
       <c r="E17">
-        <v>1.06226034093231</v>
+        <v>1.029404075474429</v>
       </c>
       <c r="F17">
-        <v>1.069577689446682</v>
+        <v>1.033920755709775</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049212217072609</v>
+        <v>1.054116908960053</v>
       </c>
       <c r="J17">
-        <v>1.054609356141067</v>
+        <v>1.038345787574477</v>
       </c>
       <c r="K17">
-        <v>1.054859538023408</v>
+        <v>1.043254450565241</v>
       </c>
       <c r="L17">
-        <v>1.06553714736465</v>
+        <v>1.04291546552239</v>
       </c>
       <c r="M17">
-        <v>1.072830540875125</v>
+        <v>1.047359069789464</v>
       </c>
       <c r="N17">
-        <v>1.056107022392171</v>
+        <v>1.039820357692759</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.048740351135247</v>
+        <v>1.0125255763668</v>
       </c>
       <c r="D18">
-        <v>1.051727283533534</v>
+        <v>1.030679640239974</v>
       </c>
       <c r="E18">
-        <v>1.06248779109018</v>
+        <v>1.030530945737197</v>
       </c>
       <c r="F18">
-        <v>1.069823489722404</v>
+        <v>1.035129324044332</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049288647825783</v>
+        <v>1.054606189396912</v>
       </c>
       <c r="J18">
-        <v>1.054759875283295</v>
+        <v>1.03912359345037</v>
       </c>
       <c r="K18">
-        <v>1.054998020767226</v>
+        <v>1.043989013578039</v>
       </c>
       <c r="L18">
-        <v>1.065723126118369</v>
+        <v>1.043842694014053</v>
       </c>
       <c r="M18">
-        <v>1.073035137255379</v>
+        <v>1.048368031535478</v>
       </c>
       <c r="N18">
-        <v>1.056257755288846</v>
+        <v>1.040599268142211</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.048818693115243</v>
+        <v>1.012936448416993</v>
       </c>
       <c r="D19">
-        <v>1.051788759018518</v>
+        <v>1.03099584391032</v>
       </c>
       <c r="E19">
-        <v>1.062565358387601</v>
+        <v>1.030913723942275</v>
       </c>
       <c r="F19">
-        <v>1.069907316718083</v>
+        <v>1.035539857163481</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049314685628305</v>
+        <v>1.054772147225923</v>
       </c>
       <c r="J19">
-        <v>1.054811191418945</v>
+        <v>1.039387660626273</v>
       </c>
       <c r="K19">
-        <v>1.055045229563895</v>
+        <v>1.044238376094055</v>
       </c>
       <c r="L19">
-        <v>1.065786540365527</v>
+        <v>1.044157559627651</v>
       </c>
       <c r="M19">
-        <v>1.073104902740923</v>
+        <v>1.048710673831481</v>
       </c>
       <c r="N19">
-        <v>1.056309144299295</v>
+        <v>1.040863710323792</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048468350149166</v>
+        <v>1.011092238091935</v>
       </c>
       <c r="D20">
-        <v>1.051513838162902</v>
+        <v>1.029576828151793</v>
       </c>
       <c r="E20">
-        <v>1.062218509204389</v>
+        <v>1.029196099793757</v>
       </c>
       <c r="F20">
-        <v>1.069532483672549</v>
+        <v>1.033697703380989</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049198147243296</v>
+        <v>1.054026491898354</v>
       </c>
       <c r="J20">
-        <v>1.0545816659559</v>
+        <v>1.038202168763736</v>
       </c>
       <c r="K20">
-        <v>1.054834060306699</v>
+        <v>1.043118805214242</v>
       </c>
       <c r="L20">
-        <v>1.065502938116044</v>
+        <v>1.042744289277613</v>
       </c>
       <c r="M20">
-        <v>1.072792908529633</v>
+        <v>1.047172815134234</v>
       </c>
       <c r="N20">
-        <v>1.056079292883765</v>
+        <v>1.039676534926834</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047329717007015</v>
+        <v>1.004975031069506</v>
       </c>
       <c r="D21">
-        <v>1.050620257127558</v>
+        <v>1.024875148580702</v>
       </c>
       <c r="E21">
-        <v>1.06109174924931</v>
+        <v>1.023507634067508</v>
       </c>
       <c r="F21">
-        <v>1.06831493789256</v>
+        <v>1.027597012039778</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04881766934594</v>
+        <v>1.051540048806284</v>
       </c>
       <c r="J21">
-        <v>1.053834972858932</v>
+        <v>1.034266210923854</v>
       </c>
       <c r="K21">
-        <v>1.054146820908016</v>
+        <v>1.039400096534159</v>
       </c>
       <c r="L21">
-        <v>1.064580942236331</v>
+        <v>1.038056925851316</v>
       </c>
       <c r="M21">
-        <v>1.071778823000628</v>
+        <v>1.042073756729651</v>
       </c>
       <c r="N21">
-        <v>1.055331539396952</v>
+        <v>1.035734987575358</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04661409423521</v>
+        <v>1.001030691312349</v>
       </c>
       <c r="D22">
-        <v>1.050058594417527</v>
+        <v>1.021847913482736</v>
       </c>
       <c r="E22">
-        <v>1.060383987934478</v>
+        <v>1.019846846339598</v>
       </c>
       <c r="F22">
-        <v>1.067550242974868</v>
+        <v>1.02367102379273</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048577222254689</v>
+        <v>1.049926940222819</v>
       </c>
       <c r="J22">
-        <v>1.053365128430904</v>
+        <v>1.031725712720248</v>
       </c>
       <c r="K22">
-        <v>1.053714185933626</v>
+        <v>1.036998637944307</v>
       </c>
       <c r="L22">
-        <v>1.064001266162554</v>
+        <v>1.035035126488148</v>
       </c>
       <c r="M22">
-        <v>1.071141411520291</v>
+        <v>1.038787699207514</v>
       </c>
       <c r="N22">
-        <v>1.054861027735945</v>
+        <v>1.033190881572904</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.046993432714015</v>
+        <v>1.003131311068509</v>
       </c>
       <c r="D23">
-        <v>1.0503563263635</v>
+        <v>1.023459676379336</v>
       </c>
       <c r="E23">
-        <v>1.06075912121785</v>
+        <v>1.021795769824681</v>
       </c>
       <c r="F23">
-        <v>1.067955543928217</v>
+        <v>1.025761130459435</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048704803899633</v>
+        <v>1.050786937695686</v>
       </c>
       <c r="J23">
-        <v>1.053614236692985</v>
+        <v>1.033078924701992</v>
       </c>
       <c r="K23">
-        <v>1.053943584990178</v>
+        <v>1.038277897176104</v>
       </c>
       <c r="L23">
-        <v>1.064308561447177</v>
+        <v>1.036644360749232</v>
       </c>
       <c r="M23">
-        <v>1.071479297799444</v>
+        <v>1.040537555604029</v>
       </c>
       <c r="N23">
-        <v>1.055110489760331</v>
+        <v>1.034546015270878</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048487444239814</v>
+        <v>1.011193202733679</v>
       </c>
       <c r="D24">
-        <v>1.05152882194866</v>
+        <v>1.029654496480761</v>
       </c>
       <c r="E24">
-        <v>1.062237410930467</v>
+        <v>1.029290101940357</v>
       </c>
       <c r="F24">
-        <v>1.069552909934219</v>
+        <v>1.033798519906682</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049204505214352</v>
+        <v>1.054067363583002</v>
       </c>
       <c r="J24">
-        <v>1.054594178085987</v>
+        <v>1.038267085044003</v>
       </c>
       <c r="K24">
-        <v>1.054845572776491</v>
+        <v>1.043180117884676</v>
       </c>
       <c r="L24">
-        <v>1.065518395797271</v>
+        <v>1.042821660369686</v>
       </c>
       <c r="M24">
-        <v>1.072809912904363</v>
+        <v>1.04725700121897</v>
       </c>
       <c r="N24">
-        <v>1.056091822782512</v>
+        <v>1.039741543395665</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.05022238039784</v>
+        <v>1.020153064804487</v>
       </c>
       <c r="D25">
-        <v>1.052890141510291</v>
+        <v>1.036555183102191</v>
       </c>
       <c r="E25">
-        <v>1.063955816113539</v>
+        <v>1.037647175660068</v>
       </c>
       <c r="F25">
-        <v>1.071410139698424</v>
+        <v>1.042761920046615</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049779036952518</v>
+        <v>1.057670453286688</v>
       </c>
       <c r="J25">
-        <v>1.055729727306706</v>
+        <v>1.044020725041263</v>
       </c>
       <c r="K25">
-        <v>1.055889912493253</v>
+        <v>1.048611343785841</v>
       </c>
       <c r="L25">
-        <v>1.066922411540279</v>
+        <v>1.049687883785994</v>
       </c>
       <c r="M25">
-        <v>1.074354806939047</v>
+        <v>1.05473079432022</v>
       </c>
       <c r="N25">
-        <v>1.057228984613373</v>
+        <v>1.045503354221673</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027012220595513</v>
+        <v>1.010267608614126</v>
       </c>
       <c r="D2">
-        <v>1.041848219706646</v>
+        <v>1.032656518616362</v>
       </c>
       <c r="E2">
-        <v>1.044065632376952</v>
+        <v>1.018375448932505</v>
       </c>
       <c r="F2">
-        <v>1.049647050962595</v>
+        <v>1.038452740379343</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060393005776357</v>
+        <v>1.05454107542334</v>
       </c>
       <c r="J2">
-        <v>1.048413962243523</v>
+        <v>1.032145495045247</v>
       </c>
       <c r="K2">
-        <v>1.052753775895831</v>
+        <v>1.043678898022198</v>
       </c>
       <c r="L2">
-        <v>1.054943389983336</v>
+        <v>1.029584585397773</v>
       </c>
       <c r="M2">
-        <v>1.060455484296277</v>
+        <v>1.049401151176205</v>
       </c>
       <c r="N2">
-        <v>1.049902830324671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013649210680672</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047670052873347</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.041955045875564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031840161471144</v>
+        <v>1.015387704960408</v>
       </c>
       <c r="D3">
-        <v>1.045578660739248</v>
+        <v>1.036072926062447</v>
       </c>
       <c r="E3">
-        <v>1.048594664058658</v>
+        <v>1.022998598195648</v>
       </c>
       <c r="F3">
-        <v>1.05450614036406</v>
+        <v>1.04179294230378</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062287885278064</v>
+        <v>1.055845019472642</v>
       </c>
       <c r="J3">
-        <v>1.051498923961014</v>
+        <v>1.03546749776243</v>
       </c>
       <c r="K3">
-        <v>1.055659767213876</v>
+        <v>1.046264149471383</v>
       </c>
       <c r="L3">
-        <v>1.058641346982014</v>
+        <v>1.03334542731237</v>
       </c>
       <c r="M3">
-        <v>1.064486055361179</v>
+        <v>1.051917606049954</v>
       </c>
       <c r="N3">
-        <v>1.052992173041651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014858130954071</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049661635953012</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043780378096841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034897905775666</v>
+        <v>1.01862938882705</v>
       </c>
       <c r="D4">
-        <v>1.047943214626537</v>
+        <v>1.03823894629613</v>
       </c>
       <c r="E4">
-        <v>1.051468101019304</v>
+        <v>1.025931210634148</v>
       </c>
       <c r="F4">
-        <v>1.057589390220344</v>
+        <v>1.043914197947573</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063477833336828</v>
+        <v>1.056657666795396</v>
       </c>
       <c r="J4">
-        <v>1.053449169949439</v>
+        <v>1.037568266470621</v>
       </c>
       <c r="K4">
-        <v>1.057495493843496</v>
+        <v>1.047896767357593</v>
       </c>
       <c r="L4">
-        <v>1.0609826349242</v>
+        <v>1.035726426832423</v>
       </c>
       <c r="M4">
-        <v>1.067039106955462</v>
+        <v>1.053510003754274</v>
       </c>
       <c r="N4">
-        <v>1.054945188603076</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015621818888903</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050921895149755</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044935658397502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036168113773273</v>
+        <v>1.019981937420622</v>
       </c>
       <c r="D5">
-        <v>1.048925875693552</v>
+        <v>1.039145237813699</v>
       </c>
       <c r="E5">
-        <v>1.052662917127149</v>
+        <v>1.027156655385751</v>
       </c>
       <c r="F5">
-        <v>1.058871555570389</v>
+        <v>1.044801199202416</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063969672429842</v>
+        <v>1.056995171788425</v>
       </c>
       <c r="J5">
-        <v>1.054258421880709</v>
+        <v>1.038446166987725</v>
       </c>
       <c r="K5">
-        <v>1.058256886874344</v>
+        <v>1.048579752071794</v>
       </c>
       <c r="L5">
-        <v>1.061955001309079</v>
+        <v>1.036721340486416</v>
       </c>
       <c r="M5">
-        <v>1.068099707767241</v>
+        <v>1.054175570537799</v>
       </c>
       <c r="N5">
-        <v>1.05575558976491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015942552363637</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051448638974859</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.045425699588285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036380508672257</v>
+        <v>1.020215592529319</v>
       </c>
       <c r="D6">
-        <v>1.049090211794526</v>
+        <v>1.039304139799984</v>
       </c>
       <c r="E6">
-        <v>1.052862773512759</v>
+        <v>1.027369101115498</v>
       </c>
       <c r="F6">
-        <v>1.059086029290267</v>
+        <v>1.044955063876811</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064051767741719</v>
+        <v>1.0570552383946</v>
       </c>
       <c r="J6">
-        <v>1.054393685645708</v>
+        <v>1.038600245319816</v>
       </c>
       <c r="K6">
-        <v>1.058384130989769</v>
+        <v>1.048701139199881</v>
       </c>
       <c r="L6">
-        <v>1.062117579439371</v>
+        <v>1.036895079206997</v>
       </c>
       <c r="M6">
-        <v>1.068277055509876</v>
+        <v>1.054292252111338</v>
       </c>
       <c r="N6">
-        <v>1.055891045619971</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016001017249097</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051540983236179</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.045520209693235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034914937584818</v>
+        <v>1.018667839948043</v>
       </c>
       <c r="D7">
-        <v>1.047956389256827</v>
+        <v>1.038270867944221</v>
       </c>
       <c r="E7">
-        <v>1.051484117336553</v>
+        <v>1.025967858545193</v>
       </c>
       <c r="F7">
-        <v>1.05760657701082</v>
+        <v>1.043940851946373</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06348443806746</v>
+        <v>1.056672508250032</v>
       </c>
       <c r="J7">
-        <v>1.053460024518896</v>
+        <v>1.037599861214052</v>
       </c>
       <c r="K7">
-        <v>1.057505707829406</v>
+        <v>1.047925483870922</v>
       </c>
       <c r="L7">
-        <v>1.06099567398408</v>
+        <v>1.035759759847632</v>
       </c>
       <c r="M7">
-        <v>1.067053328068228</v>
+        <v>1.053533535057096</v>
       </c>
       <c r="N7">
-        <v>1.054956058587267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015639343496282</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.050940518333737</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044975935206951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,81 +751,105 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028657932551434</v>
+        <v>1.01203917386538</v>
       </c>
       <c r="D8">
-        <v>1.043119395047074</v>
+        <v>1.033845568374287</v>
       </c>
       <c r="E8">
-        <v>1.045608385416521</v>
+        <v>1.019976243392321</v>
       </c>
       <c r="F8">
-        <v>1.051302153128805</v>
+        <v>1.039608798940468</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061041028046769</v>
+        <v>1.055001304899628</v>
       </c>
       <c r="J8">
-        <v>1.049466275293665</v>
+        <v>1.033303817346169</v>
       </c>
       <c r="K8">
-        <v>1.053745324482119</v>
+        <v>1.044585795268214</v>
       </c>
       <c r="L8">
-        <v>1.056204067409665</v>
+        <v>1.030892255240089</v>
       </c>
       <c r="M8">
-        <v>1.06182930966364</v>
+        <v>1.050277697135762</v>
       </c>
       <c r="N8">
-        <v>1.050956637780046</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014078856994434</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.048363773093074</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.042619082934484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017096450317534</v>
+        <v>0.9997463285357351</v>
       </c>
       <c r="D9">
-        <v>1.03419926630834</v>
+        <v>1.025656374577932</v>
       </c>
       <c r="E9">
-        <v>1.034792812938514</v>
+        <v>1.008908267660619</v>
       </c>
       <c r="F9">
-        <v>1.03970033441828</v>
+        <v>1.031628353848653</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056446824678987</v>
+        <v>1.051793189738273</v>
       </c>
       <c r="J9">
-        <v>1.042059604782215</v>
+        <v>1.025308047777237</v>
       </c>
       <c r="K9">
-        <v>1.046760824530519</v>
+        <v>1.038346471020032</v>
       </c>
       <c r="L9">
-        <v>1.047345540783369</v>
+        <v>1.021858449116615</v>
       </c>
       <c r="M9">
-        <v>1.052180542035362</v>
+        <v>1.044228309624232</v>
       </c>
       <c r="N9">
-        <v>1.043539448946913</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011158144538409</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.043576124428099</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038204318171099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008986010479215</v>
+        <v>0.9912235863191412</v>
       </c>
       <c r="D10">
-        <v>1.027957075175844</v>
+        <v>1.020025498927328</v>
       </c>
       <c r="E10">
-        <v>1.02723596524549</v>
+        <v>1.001279338602534</v>
       </c>
       <c r="F10">
-        <v>1.031595495486009</v>
+        <v>1.026207583080266</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053172594882142</v>
+        <v>1.049530083525632</v>
       </c>
       <c r="J10">
-        <v>1.036847584601269</v>
+        <v>1.019789792648483</v>
       </c>
       <c r="K10">
-        <v>1.041839259152848</v>
+        <v>1.034042361232685</v>
       </c>
       <c r="L10">
-        <v>1.041130282833627</v>
+        <v>1.015625532550931</v>
       </c>
       <c r="M10">
-        <v>1.045416791584117</v>
+        <v>1.040119242591879</v>
       </c>
       <c r="N10">
-        <v>1.038320027099483</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009171274700841</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.040375400141916</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035177834176024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005368178774521</v>
+        <v>0.9882659028741062</v>
       </c>
       <c r="D11">
-        <v>1.025177076604957</v>
+        <v>1.018250970491811</v>
       </c>
       <c r="E11">
-        <v>1.023872821982126</v>
+        <v>0.9987192652154101</v>
       </c>
       <c r="F11">
-        <v>1.027988657688812</v>
+        <v>1.024885898121666</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051700426197379</v>
+        <v>1.048918137590616</v>
       </c>
       <c r="J11">
-        <v>1.034519327970685</v>
+        <v>1.018135114802297</v>
       </c>
       <c r="K11">
-        <v>1.039639312344835</v>
+        <v>1.032836716924812</v>
       </c>
       <c r="L11">
-        <v>1.038358150326532</v>
+        <v>1.013665374802523</v>
       </c>
       <c r="M11">
-        <v>1.042401370991288</v>
+        <v>1.039353282740183</v>
       </c>
       <c r="N11">
-        <v>1.03598846407743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008833027478979</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040204571793873</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034358251247662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004007472629638</v>
+        <v>0.9874318661531704</v>
       </c>
       <c r="D12">
-        <v>1.024132233501661</v>
+        <v>1.017818786542334</v>
       </c>
       <c r="E12">
-        <v>1.022609120955862</v>
+        <v>0.9980322952641321</v>
       </c>
       <c r="F12">
-        <v>1.026633404254621</v>
+        <v>1.024758281160042</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051145030171185</v>
+        <v>1.048818894097114</v>
       </c>
       <c r="J12">
-        <v>1.033643192080096</v>
+        <v>1.01777782361566</v>
       </c>
       <c r="K12">
-        <v>1.038811255679298</v>
+        <v>1.032612387828163</v>
       </c>
       <c r="L12">
-        <v>1.037315616863312</v>
+        <v>1.01319729073582</v>
       </c>
       <c r="M12">
-        <v>1.041267540273152</v>
+        <v>1.039426041535711</v>
       </c>
       <c r="N12">
-        <v>1.035111083973381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008903250522381</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040587900938204</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034199643065348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004300128966786</v>
+        <v>0.9882122965990908</v>
       </c>
       <c r="D13">
-        <v>1.024356920135188</v>
+        <v>1.018423179474232</v>
       </c>
       <c r="E13">
-        <v>1.022880858060911</v>
+        <v>0.9987736194948933</v>
       </c>
       <c r="F13">
-        <v>1.026924827614875</v>
+        <v>1.02557626027382</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051264558821074</v>
+        <v>1.049130305958128</v>
       </c>
       <c r="J13">
-        <v>1.033831648285128</v>
+        <v>1.018429569191879</v>
       </c>
       <c r="K13">
-        <v>1.038989379120538</v>
+        <v>1.033162853321761</v>
       </c>
       <c r="L13">
-        <v>1.037539836486634</v>
+        <v>1.013880239769366</v>
       </c>
       <c r="M13">
-        <v>1.041511386526207</v>
+        <v>1.040186886941509</v>
       </c>
       <c r="N13">
-        <v>1.03529980780784</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009312095188058</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041465638254876</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034586346374704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005256052609332</v>
+        <v>0.9894859204700048</v>
       </c>
       <c r="D14">
-        <v>1.02509096289916</v>
+        <v>1.019313219750505</v>
       </c>
       <c r="E14">
-        <v>1.023768664353961</v>
+        <v>0.9999357723670866</v>
       </c>
       <c r="F14">
-        <v>1.02787695381714</v>
+        <v>1.026573996697621</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051654694132232</v>
+        <v>1.049532533811104</v>
       </c>
       <c r="J14">
-        <v>1.034447140740387</v>
+        <v>1.019339024147229</v>
       </c>
       <c r="K14">
-        <v>1.039571090578352</v>
+        <v>1.033896385719587</v>
       </c>
       <c r="L14">
-        <v>1.03827224027977</v>
+        <v>1.014875870480044</v>
       </c>
       <c r="M14">
-        <v>1.042307933602417</v>
+        <v>1.041027919001815</v>
       </c>
       <c r="N14">
-        <v>1.035916174332983</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009749531372524</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042303457054193</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035106403704753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005842761565076</v>
+        <v>0.9901594060341437</v>
       </c>
       <c r="D15">
-        <v>1.025541590423595</v>
+        <v>1.019768991155241</v>
       </c>
       <c r="E15">
-        <v>1.024313727088011</v>
+        <v>1.00054239660445</v>
       </c>
       <c r="F15">
-        <v>1.028461507038399</v>
+        <v>1.027042016589057</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051893921895964</v>
+        <v>1.04972750532049</v>
       </c>
       <c r="J15">
-        <v>1.034824847908476</v>
+        <v>1.019793768375973</v>
       </c>
       <c r="K15">
-        <v>1.039928040885249</v>
+        <v>1.034257568513546</v>
       </c>
       <c r="L15">
-        <v>1.038721775546319</v>
+        <v>1.015382220600225</v>
       </c>
       <c r="M15">
-        <v>1.042796864667429</v>
+        <v>1.041402165520653</v>
       </c>
       <c r="N15">
-        <v>1.036294417888575</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009937397485357</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042636729441731</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035367642878806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009223801081977</v>
+        <v>0.9936369135673556</v>
       </c>
       <c r="D16">
-        <v>1.028139896282856</v>
+        <v>1.022055980536562</v>
       </c>
       <c r="E16">
-        <v>1.027457181289852</v>
+        <v>1.003642231179611</v>
       </c>
       <c r="F16">
-        <v>1.031832743793502</v>
+        <v>1.029222234631714</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053269118711348</v>
+        <v>1.050653907759123</v>
       </c>
       <c r="J16">
-        <v>1.037000549447854</v>
+        <v>1.022027683063851</v>
       </c>
       <c r="K16">
-        <v>1.041983765167015</v>
+        <v>1.036002565025617</v>
       </c>
       <c r="L16">
-        <v>1.041312498429623</v>
+        <v>1.017909548553083</v>
       </c>
       <c r="M16">
-        <v>1.045615026478906</v>
+        <v>1.043047994195542</v>
       </c>
       <c r="N16">
-        <v>1.038473209173695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010706179856617</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04389896095039</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036604574261254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011315612614828</v>
+        <v>0.9956389059979032</v>
       </c>
       <c r="D17">
-        <v>1.029748664685775</v>
+        <v>1.023345678125815</v>
       </c>
       <c r="E17">
-        <v>1.029404075474429</v>
+        <v>1.005414475247534</v>
       </c>
       <c r="F17">
-        <v>1.033920755709775</v>
+        <v>1.030368180057831</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054116908960053</v>
+        <v>1.051150767253906</v>
       </c>
       <c r="J17">
-        <v>1.038345787574477</v>
+        <v>1.023265712384858</v>
       </c>
       <c r="K17">
-        <v>1.043254450565241</v>
+        <v>1.036956391210097</v>
       </c>
       <c r="L17">
-        <v>1.04291546552239</v>
+        <v>1.019328230485465</v>
       </c>
       <c r="M17">
-        <v>1.047359069789464</v>
+        <v>1.043863902661012</v>
       </c>
       <c r="N17">
-        <v>1.039820357692759</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011067972216963</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044415178747091</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.037281542467963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.0125255763668</v>
+        <v>0.996530288905253</v>
       </c>
       <c r="D18">
-        <v>1.030679640239974</v>
+        <v>1.023861255279305</v>
       </c>
       <c r="E18">
-        <v>1.030530945737197</v>
+        <v>1.006176401697117</v>
       </c>
       <c r="F18">
-        <v>1.035129324044332</v>
+        <v>1.030674303108941</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054606189396912</v>
+        <v>1.051305700664989</v>
       </c>
       <c r="J18">
-        <v>1.03912359345037</v>
+        <v>1.023725021650868</v>
       </c>
       <c r="K18">
-        <v>1.043989013578039</v>
+        <v>1.037280442531261</v>
       </c>
       <c r="L18">
-        <v>1.043842694014053</v>
+        <v>1.01988936731736</v>
       </c>
       <c r="M18">
-        <v>1.048368031535478</v>
+        <v>1.043983761676112</v>
       </c>
       <c r="N18">
-        <v>1.040599268142211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011088956557199</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04427296432815</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.037499036434768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012936448416993</v>
+        <v>0.996425213012075</v>
       </c>
       <c r="D19">
-        <v>1.03099584391032</v>
+        <v>1.023683835375653</v>
       </c>
       <c r="E19">
-        <v>1.030913723942275</v>
+        <v>1.006031522994071</v>
       </c>
       <c r="F19">
-        <v>1.035539857163481</v>
+        <v>1.030218839240924</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054772147225923</v>
+        <v>1.051157022180587</v>
       </c>
       <c r="J19">
-        <v>1.039387660626273</v>
+        <v>1.023488533644031</v>
       </c>
       <c r="K19">
-        <v>1.044238376094055</v>
+        <v>1.037043484264319</v>
       </c>
       <c r="L19">
-        <v>1.044157559627651</v>
+        <v>1.019682961155455</v>
       </c>
       <c r="M19">
-        <v>1.048710673831481</v>
+        <v>1.04347371558637</v>
       </c>
       <c r="N19">
-        <v>1.040863710323792</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010821601355505</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043545263680548</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037337885851804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011092238091935</v>
+        <v>0.9934991411066076</v>
       </c>
       <c r="D20">
-        <v>1.029576828151793</v>
+        <v>1.021543413083337</v>
       </c>
       <c r="E20">
-        <v>1.029196099793757</v>
+        <v>1.003319379719206</v>
       </c>
       <c r="F20">
-        <v>1.033697703380989</v>
+        <v>1.027658824112485</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054026491898354</v>
+        <v>1.050152321020053</v>
       </c>
       <c r="J20">
-        <v>1.038202168763736</v>
+        <v>1.021282980648051</v>
       </c>
       <c r="K20">
-        <v>1.043118805214242</v>
+        <v>1.03521773769396</v>
       </c>
       <c r="L20">
-        <v>1.042744289277613</v>
+        <v>1.017304111877763</v>
       </c>
       <c r="M20">
-        <v>1.047172815134234</v>
+        <v>1.0412321578243</v>
       </c>
       <c r="N20">
-        <v>1.039676534926834</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009729049615568</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.041245628391196</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036050944212436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004975031069506</v>
+        <v>0.9868962707033585</v>
       </c>
       <c r="D21">
-        <v>1.024875148580702</v>
+        <v>1.017153759919252</v>
       </c>
       <c r="E21">
-        <v>1.023507634067508</v>
+        <v>0.9974059241990162</v>
       </c>
       <c r="F21">
-        <v>1.027597012039778</v>
+        <v>1.023367017595269</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051540048806284</v>
+        <v>1.048339134571907</v>
       </c>
       <c r="J21">
-        <v>1.034266210923854</v>
+        <v>1.016952256774945</v>
       </c>
       <c r="K21">
-        <v>1.039400096534159</v>
+        <v>1.031817277058795</v>
       </c>
       <c r="L21">
-        <v>1.038056925851316</v>
+        <v>1.012436609366205</v>
       </c>
       <c r="M21">
-        <v>1.042073756729651</v>
+        <v>1.0379188173546</v>
       </c>
       <c r="N21">
-        <v>1.035734987575358</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008119798544252</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038582588319139</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033649941309931</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001030691312349</v>
+        <v>0.9826635553498304</v>
       </c>
       <c r="D22">
-        <v>1.021847913482736</v>
+        <v>1.014351395548748</v>
       </c>
       <c r="E22">
-        <v>1.019846846339598</v>
+        <v>0.9936262290407631</v>
       </c>
       <c r="F22">
-        <v>1.02367102379273</v>
+        <v>1.02066073024983</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049926940222819</v>
+        <v>1.047171325609865</v>
       </c>
       <c r="J22">
-        <v>1.031725712720248</v>
+        <v>1.014183982073947</v>
       </c>
       <c r="K22">
-        <v>1.036998637944307</v>
+        <v>1.029643810684314</v>
       </c>
       <c r="L22">
-        <v>1.035035126488148</v>
+        <v>1.009325017920669</v>
       </c>
       <c r="M22">
-        <v>1.038787699207514</v>
+        <v>1.035833712361601</v>
       </c>
       <c r="N22">
-        <v>1.033190881572904</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007097381545882</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.036932361208106</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032099681307907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003131311068509</v>
+        <v>0.984896715130541</v>
       </c>
       <c r="D23">
-        <v>1.023459676379336</v>
+        <v>1.01582376108873</v>
       </c>
       <c r="E23">
-        <v>1.021795769824681</v>
+        <v>0.9956175441636377</v>
       </c>
       <c r="F23">
-        <v>1.025761130459435</v>
+        <v>1.022086290358643</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050786937695686</v>
+        <v>1.047784298107486</v>
       </c>
       <c r="J23">
-        <v>1.033078924701992</v>
+        <v>1.015638109063247</v>
       </c>
       <c r="K23">
-        <v>1.038277897176104</v>
+        <v>1.030782423651533</v>
       </c>
       <c r="L23">
-        <v>1.036644360749232</v>
+        <v>1.010961483725934</v>
       </c>
       <c r="M23">
-        <v>1.040537555604029</v>
+        <v>1.036929569337815</v>
       </c>
       <c r="N23">
-        <v>1.034546015270878</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007627485433695</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.037799662322443</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03289507309759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011193202733679</v>
+        <v>0.9934937732985745</v>
       </c>
       <c r="D24">
-        <v>1.029654496480761</v>
+        <v>1.021514367631306</v>
       </c>
       <c r="E24">
-        <v>1.029290101940357</v>
+        <v>1.00330397556235</v>
       </c>
       <c r="F24">
-        <v>1.033798519906682</v>
+        <v>1.027598840773368</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054067363583002</v>
+        <v>1.050125951928648</v>
       </c>
       <c r="J24">
-        <v>1.038267085044003</v>
+        <v>1.021244596036287</v>
       </c>
       <c r="K24">
-        <v>1.043180117884676</v>
+        <v>1.035173914940109</v>
       </c>
       <c r="L24">
-        <v>1.042821660369686</v>
+        <v>1.017273317062152</v>
       </c>
       <c r="M24">
-        <v>1.04725700121897</v>
+        <v>1.041158025527582</v>
       </c>
       <c r="N24">
-        <v>1.039741543395665</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009681786497923</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.041146206672224</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035992560924151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020153064804487</v>
+        <v>1.003032103339986</v>
       </c>
       <c r="D25">
-        <v>1.036555183102191</v>
+        <v>1.027851110709857</v>
       </c>
       <c r="E25">
-        <v>1.037647175660068</v>
+        <v>1.011864041981535</v>
       </c>
       <c r="F25">
-        <v>1.042761920046615</v>
+        <v>1.033756507119455</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057670453286688</v>
+        <v>1.052669915796588</v>
       </c>
       <c r="J25">
-        <v>1.044020725041263</v>
+        <v>1.027457854218607</v>
       </c>
       <c r="K25">
-        <v>1.048611343785841</v>
+        <v>1.040031928573286</v>
       </c>
       <c r="L25">
-        <v>1.049687883785994</v>
+        <v>1.024280933967763</v>
       </c>
       <c r="M25">
-        <v>1.05473079432022</v>
+        <v>1.045852459879353</v>
       </c>
       <c r="N25">
-        <v>1.045503354221673</v>
+        <v>1.011954865478657</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.044861523872249</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039424551128122</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010267608614126</v>
+        <v>1.009432501641108</v>
       </c>
       <c r="D2">
-        <v>1.032656518616362</v>
+        <v>1.031285382071343</v>
       </c>
       <c r="E2">
-        <v>1.018375448932505</v>
+        <v>1.017545724086914</v>
       </c>
       <c r="F2">
-        <v>1.038452740379343</v>
+        <v>1.0375026911381</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05454107542334</v>
+        <v>1.053830543186502</v>
       </c>
       <c r="J2">
-        <v>1.032145495045247</v>
+        <v>1.031334702436209</v>
       </c>
       <c r="K2">
-        <v>1.043678898022198</v>
+        <v>1.042325411364806</v>
       </c>
       <c r="L2">
-        <v>1.029584585397773</v>
+        <v>1.028765913360645</v>
       </c>
       <c r="M2">
-        <v>1.049401151176205</v>
+        <v>1.048463155289329</v>
       </c>
       <c r="N2">
-        <v>1.013649210680672</v>
+        <v>1.014942522305277</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047670052873347</v>
+        <v>1.046927698935997</v>
       </c>
       <c r="Q2">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R2">
-        <v>1.041955045875564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041006758072081</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023072330671142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015387704960408</v>
+        <v>1.014168455898622</v>
       </c>
       <c r="D3">
-        <v>1.036072926062447</v>
+        <v>1.034331353852818</v>
       </c>
       <c r="E3">
-        <v>1.022998598195648</v>
+        <v>1.021785836359187</v>
       </c>
       <c r="F3">
-        <v>1.04179294230378</v>
+        <v>1.040563996907932</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055845019472642</v>
+        <v>1.054940583281533</v>
       </c>
       <c r="J3">
-        <v>1.03546749776243</v>
+        <v>1.034280187678876</v>
       </c>
       <c r="K3">
-        <v>1.046264149471383</v>
+        <v>1.044543023623118</v>
       </c>
       <c r="L3">
-        <v>1.03334542731237</v>
+        <v>1.032147349953358</v>
       </c>
       <c r="M3">
-        <v>1.051917606049954</v>
+        <v>1.050702884715884</v>
       </c>
       <c r="N3">
-        <v>1.014858130954071</v>
+        <v>1.015776049155439</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049661635953012</v>
+        <v>1.04870027685918</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043780378096841</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042571858569197</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023581489743447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01862938882705</v>
+        <v>1.017170820069198</v>
       </c>
       <c r="D4">
-        <v>1.03823894629613</v>
+        <v>1.036265185703961</v>
       </c>
       <c r="E4">
-        <v>1.025931210634148</v>
+        <v>1.024479405552581</v>
       </c>
       <c r="F4">
-        <v>1.043914197947573</v>
+        <v>1.0425107513786</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056657666795396</v>
+        <v>1.055631469195416</v>
       </c>
       <c r="J4">
-        <v>1.037568266470621</v>
+        <v>1.036145264612868</v>
       </c>
       <c r="K4">
-        <v>1.047896767357593</v>
+        <v>1.045944770339122</v>
       </c>
       <c r="L4">
-        <v>1.035726426832423</v>
+        <v>1.034291097074913</v>
       </c>
       <c r="M4">
-        <v>1.053510003754274</v>
+        <v>1.052121815961654</v>
       </c>
       <c r="N4">
-        <v>1.015621818888903</v>
+        <v>1.016303690269965</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050921895149755</v>
+        <v>1.049823252368302</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044935658397502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04356397492764</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023900840354437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019981937420622</v>
+        <v>1.018423808899229</v>
       </c>
       <c r="D5">
-        <v>1.039145237813699</v>
+        <v>1.037074823618188</v>
       </c>
       <c r="E5">
-        <v>1.027156655385751</v>
+        <v>1.025605319873441</v>
       </c>
       <c r="F5">
-        <v>1.044801199202416</v>
+        <v>1.043325139659827</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056995171788425</v>
+        <v>1.055918235204873</v>
       </c>
       <c r="J5">
-        <v>1.038446166987725</v>
+        <v>1.036924874304415</v>
       </c>
       <c r="K5">
-        <v>1.048579752071794</v>
+        <v>1.046531554709129</v>
       </c>
       <c r="L5">
-        <v>1.036721340486416</v>
+        <v>1.035187122527826</v>
       </c>
       <c r="M5">
-        <v>1.054175570537799</v>
+        <v>1.052715129797867</v>
       </c>
       <c r="N5">
-        <v>1.015942552363637</v>
+        <v>1.016525337067455</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051448638974859</v>
+        <v>1.050292814369376</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045425699588285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043986707313911</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024034881314971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020215592529319</v>
+        <v>1.018639600058352</v>
       </c>
       <c r="D6">
-        <v>1.039304139799984</v>
+        <v>1.03721667928857</v>
       </c>
       <c r="E6">
-        <v>1.027369101115498</v>
+        <v>1.025799906763109</v>
       </c>
       <c r="F6">
-        <v>1.044955063876811</v>
+        <v>1.04346614965366</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.0570552383946</v>
+        <v>1.055969350312519</v>
       </c>
       <c r="J6">
-        <v>1.038600245319816</v>
+        <v>1.037061315161933</v>
       </c>
       <c r="K6">
-        <v>1.048701139199881</v>
+        <v>1.046635974917755</v>
       </c>
       <c r="L6">
-        <v>1.036895079206997</v>
+        <v>1.035343116933893</v>
       </c>
       <c r="M6">
-        <v>1.054292252111338</v>
+        <v>1.052819020152618</v>
       </c>
       <c r="N6">
-        <v>1.016001017249097</v>
+        <v>1.016565500354886</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051540983236179</v>
+        <v>1.050375035517548</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045520209693235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044070091758194</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024059867151407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018667839948043</v>
+        <v>1.017217203879753</v>
       </c>
       <c r="D7">
-        <v>1.038270867944221</v>
+        <v>1.036302145480547</v>
       </c>
       <c r="E7">
-        <v>1.025967858545193</v>
+        <v>1.024523943060288</v>
       </c>
       <c r="F7">
-        <v>1.043940851946373</v>
+        <v>1.04254175192109</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056672508250032</v>
+        <v>1.055648969595751</v>
       </c>
       <c r="J7">
-        <v>1.037599861214052</v>
+        <v>1.036184581760604</v>
       </c>
       <c r="K7">
-        <v>1.047925483870922</v>
+        <v>1.045978460433034</v>
       </c>
       <c r="L7">
-        <v>1.035759759847632</v>
+        <v>1.034332223084486</v>
       </c>
       <c r="M7">
-        <v>1.053533535057096</v>
+        <v>1.052149640465505</v>
       </c>
       <c r="N7">
-        <v>1.015639343496282</v>
+        <v>1.016346217470521</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050940518333737</v>
+        <v>1.04984527331713</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044975935206951</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043609772332644</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023913244676398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01203917386538</v>
+        <v>1.011107112425329</v>
       </c>
       <c r="D8">
-        <v>1.033845568374287</v>
+        <v>1.032371859846372</v>
       </c>
       <c r="E8">
-        <v>1.019976243392321</v>
+        <v>1.019049824851345</v>
       </c>
       <c r="F8">
-        <v>1.039608798940468</v>
+        <v>1.038583404763215</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055001304899628</v>
+        <v>1.054237189042966</v>
       </c>
       <c r="J8">
-        <v>1.033303817346169</v>
+        <v>1.032397954744873</v>
       </c>
       <c r="K8">
-        <v>1.044585795268214</v>
+        <v>1.043130485474882</v>
       </c>
       <c r="L8">
-        <v>1.030892255240089</v>
+        <v>1.029977791725589</v>
       </c>
       <c r="M8">
-        <v>1.050277697135762</v>
+        <v>1.049264921716732</v>
       </c>
       <c r="N8">
-        <v>1.014078856994434</v>
+        <v>1.015332847102839</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048363773093074</v>
+        <v>1.047562237440868</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042619082934484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041601065512528</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023266700926261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9997463285357351</v>
+        <v>0.9997705157531245</v>
       </c>
       <c r="D9">
-        <v>1.025656374577932</v>
+        <v>1.025092999117047</v>
       </c>
       <c r="E9">
-        <v>1.008908267660619</v>
+        <v>1.00893223905973</v>
       </c>
       <c r="F9">
-        <v>1.031628353848653</v>
+        <v>1.031290894894036</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051793189738273</v>
+        <v>1.051504225400702</v>
       </c>
       <c r="J9">
-        <v>1.025308047777237</v>
+        <v>1.025331380303888</v>
       </c>
       <c r="K9">
-        <v>1.038346471020032</v>
+        <v>1.037791668224419</v>
       </c>
       <c r="L9">
-        <v>1.021858449116615</v>
+        <v>1.021882040355749</v>
       </c>
       <c r="M9">
-        <v>1.044228309624232</v>
+        <v>1.043895908835633</v>
       </c>
       <c r="N9">
-        <v>1.011158144538409</v>
+        <v>1.013339455050274</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043576124428099</v>
+        <v>1.0433130525597</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038204318171099</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037822757025044</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02202442960924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9912235863191412</v>
+        <v>0.9919789415668502</v>
       </c>
       <c r="D10">
-        <v>1.020025498927328</v>
+        <v>1.020138118239701</v>
       </c>
       <c r="E10">
-        <v>1.001279338602534</v>
+        <v>1.002026299654312</v>
       </c>
       <c r="F10">
-        <v>1.026207583080266</v>
+        <v>1.026385535056405</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049530083525632</v>
+        <v>1.04959274825072</v>
       </c>
       <c r="J10">
-        <v>1.019789792648483</v>
+        <v>1.020514453530182</v>
       </c>
       <c r="K10">
-        <v>1.034042361232685</v>
+        <v>1.034153049324747</v>
       </c>
       <c r="L10">
-        <v>1.015625532550931</v>
+        <v>1.016359064760684</v>
       </c>
       <c r="M10">
-        <v>1.040119242591879</v>
+        <v>1.040294190501747</v>
       </c>
       <c r="N10">
-        <v>1.009171274700841</v>
+        <v>1.01211934084915</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040375400141916</v>
+        <v>1.040513851102767</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035177834176024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035268509392265</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021186685714917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9882659028741062</v>
+        <v>0.9892337052313842</v>
       </c>
       <c r="D11">
-        <v>1.018250970491811</v>
+        <v>1.018568062710932</v>
       </c>
       <c r="E11">
-        <v>0.9987192652154101</v>
+        <v>0.9996753607614937</v>
       </c>
       <c r="F11">
-        <v>1.024885898121666</v>
+        <v>1.025219915384591</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048918137590616</v>
+        <v>1.049087110307147</v>
       </c>
       <c r="J11">
-        <v>1.018135114802297</v>
+        <v>1.019061336430607</v>
       </c>
       <c r="K11">
-        <v>1.032836716924812</v>
+        <v>1.033148106879795</v>
       </c>
       <c r="L11">
-        <v>1.013665374802523</v>
+        <v>1.014603401900878</v>
       </c>
       <c r="M11">
-        <v>1.039353282740183</v>
+        <v>1.039681393930886</v>
       </c>
       <c r="N11">
-        <v>1.008833027478979</v>
+        <v>1.012104134551841</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040204571793873</v>
+        <v>1.040464103771604</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034358251247662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034594038383029</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021069868847863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9874318661531704</v>
+        <v>0.988412776826884</v>
       </c>
       <c r="D12">
-        <v>1.017818786542334</v>
+        <v>1.018160202477394</v>
       </c>
       <c r="E12">
-        <v>0.9980322952641321</v>
+        <v>0.9990009848972669</v>
       </c>
       <c r="F12">
-        <v>1.024758281160042</v>
+        <v>1.025109838425206</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048818894097114</v>
+        <v>1.04900052393317</v>
       </c>
       <c r="J12">
-        <v>1.01777782361566</v>
+        <v>1.018715755344702</v>
       </c>
       <c r="K12">
-        <v>1.032612387828163</v>
+        <v>1.032947560285789</v>
       </c>
       <c r="L12">
-        <v>1.01319729073582</v>
+        <v>1.014147349519918</v>
       </c>
       <c r="M12">
-        <v>1.039426041535711</v>
+        <v>1.039771282568254</v>
       </c>
       <c r="N12">
-        <v>1.008903250522381</v>
+        <v>1.012225681335621</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040587900938204</v>
+        <v>1.040860890350614</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034199643065348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034452248280418</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021101630064914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9882122965990908</v>
+        <v>0.9890290795717568</v>
       </c>
       <c r="D13">
-        <v>1.018423179474232</v>
+        <v>1.018634813490577</v>
       </c>
       <c r="E13">
-        <v>0.9987736194948933</v>
+        <v>0.99958031299331</v>
       </c>
       <c r="F13">
-        <v>1.02557626027382</v>
+        <v>1.025825831071135</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049130305958128</v>
+        <v>1.049244516344814</v>
       </c>
       <c r="J13">
-        <v>1.018429569191879</v>
+        <v>1.01921076781167</v>
       </c>
       <c r="K13">
-        <v>1.033162853321761</v>
+        <v>1.033370635439209</v>
       </c>
       <c r="L13">
-        <v>1.013880239769366</v>
+        <v>1.014671497008878</v>
       </c>
       <c r="M13">
-        <v>1.040186886941509</v>
+        <v>1.040431997475769</v>
       </c>
       <c r="N13">
-        <v>1.009312095188058</v>
+        <v>1.012433292820307</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041465638254876</v>
+        <v>1.041659403843977</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034586346374704</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034748634510051</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02125876380321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9894859204700048</v>
+        <v>0.990111321656145</v>
       </c>
       <c r="D14">
-        <v>1.019313219750505</v>
+        <v>1.019367419791263</v>
       </c>
       <c r="E14">
-        <v>0.9999357723670866</v>
+        <v>1.000553626696128</v>
       </c>
       <c r="F14">
-        <v>1.026573996697621</v>
+        <v>1.026700629869458</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049532533811104</v>
+        <v>1.049564932814214</v>
       </c>
       <c r="J14">
-        <v>1.019339024147229</v>
+        <v>1.019937598319977</v>
       </c>
       <c r="K14">
-        <v>1.033896385719587</v>
+        <v>1.033949612123821</v>
       </c>
       <c r="L14">
-        <v>1.014875870480044</v>
+        <v>1.015482065140991</v>
       </c>
       <c r="M14">
-        <v>1.041027919001815</v>
+        <v>1.041152319099635</v>
       </c>
       <c r="N14">
-        <v>1.009749531372524</v>
+        <v>1.012619861262816</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042303457054193</v>
+        <v>1.042401785012278</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035106403704753</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035159545171759</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021426241203848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9901594060341437</v>
+        <v>0.9906987689906419</v>
       </c>
       <c r="D15">
-        <v>1.019768991155241</v>
+        <v>1.01975059459825</v>
       </c>
       <c r="E15">
-        <v>1.00054239660445</v>
+        <v>1.001075342186668</v>
       </c>
       <c r="F15">
-        <v>1.027042016589057</v>
+        <v>1.027112157433888</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04972750532049</v>
+        <v>1.049722165391184</v>
       </c>
       <c r="J15">
-        <v>1.019793768375973</v>
+        <v>1.020310209983817</v>
       </c>
       <c r="K15">
-        <v>1.034257568513546</v>
+        <v>1.034239499821601</v>
       </c>
       <c r="L15">
-        <v>1.015382220600225</v>
+        <v>1.015905192582441</v>
       </c>
       <c r="M15">
-        <v>1.041402165520653</v>
+        <v>1.041471079275827</v>
       </c>
       <c r="N15">
-        <v>1.009937397485357</v>
+        <v>1.012692848674765</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042636729441731</v>
+        <v>1.042691198623692</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035367642878806</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035370941488651</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02149992195213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9936369135673556</v>
+        <v>0.9938106982274786</v>
       </c>
       <c r="D16">
-        <v>1.022055980536562</v>
+        <v>1.021715941983603</v>
       </c>
       <c r="E16">
-        <v>1.003642231179611</v>
+        <v>1.003814111933159</v>
       </c>
       <c r="F16">
-        <v>1.029222234631714</v>
+        <v>1.029043726162052</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050653907759123</v>
+        <v>1.050481259464192</v>
       </c>
       <c r="J16">
-        <v>1.022027683063851</v>
+        <v>1.022194471100602</v>
       </c>
       <c r="K16">
-        <v>1.036002565025617</v>
+        <v>1.035668314003042</v>
       </c>
       <c r="L16">
-        <v>1.017909548553083</v>
+        <v>1.018078364840162</v>
       </c>
       <c r="M16">
-        <v>1.043047994195542</v>
+        <v>1.042872469088929</v>
       </c>
       <c r="N16">
-        <v>1.010706179856617</v>
+        <v>1.012980882286341</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04389896095039</v>
+        <v>1.043760222535774</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036604574261254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03638461088897</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021814679092411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9956389059979032</v>
+        <v>0.9956461911390793</v>
       </c>
       <c r="D17">
-        <v>1.023345678125815</v>
+        <v>1.022850242200592</v>
       </c>
       <c r="E17">
-        <v>1.005414475247534</v>
+        <v>1.00542168469361</v>
       </c>
       <c r="F17">
-        <v>1.030368180057831</v>
+        <v>1.030070819456011</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051150767253906</v>
+        <v>1.050897217401225</v>
       </c>
       <c r="J17">
-        <v>1.023265712384858</v>
+        <v>1.023272714094185</v>
       </c>
       <c r="K17">
-        <v>1.036956391210097</v>
+        <v>1.036469144578796</v>
       </c>
       <c r="L17">
-        <v>1.019328230485465</v>
+        <v>1.01933531528014</v>
       </c>
       <c r="M17">
-        <v>1.043863902661012</v>
+        <v>1.043571370381461</v>
       </c>
       <c r="N17">
-        <v>1.011067972216963</v>
+        <v>1.013135875625384</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044415178747091</v>
+        <v>1.04418393262213</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037281542467963</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036953648296852</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021970255004605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.996530288905253</v>
+        <v>0.9965156199988767</v>
       </c>
       <c r="D18">
-        <v>1.023861255279305</v>
+        <v>1.023332243519423</v>
       </c>
       <c r="E18">
-        <v>1.006176401697117</v>
+        <v>1.006161880620389</v>
       </c>
       <c r="F18">
-        <v>1.030674303108941</v>
+        <v>1.030352696308663</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051305700664989</v>
+        <v>1.051034624805525</v>
       </c>
       <c r="J18">
-        <v>1.023725021650868</v>
+        <v>1.023710912387161</v>
       </c>
       <c r="K18">
-        <v>1.037280442531261</v>
+        <v>1.036760029381265</v>
       </c>
       <c r="L18">
-        <v>1.01988936731736</v>
+        <v>1.019875092940805</v>
       </c>
       <c r="M18">
-        <v>1.043983761676112</v>
+        <v>1.043667292731762</v>
       </c>
       <c r="N18">
-        <v>1.011088956557199</v>
+        <v>1.013133258834414</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04427296432815</v>
+        <v>1.044022744439699</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037499036434768</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037146556630051</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021984992083169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.996425213012075</v>
+        <v>0.996507308636379</v>
       </c>
       <c r="D19">
-        <v>1.023683835375653</v>
+        <v>1.023224429059586</v>
       </c>
       <c r="E19">
-        <v>1.006031522994071</v>
+        <v>1.00611279865337</v>
       </c>
       <c r="F19">
-        <v>1.030218839240924</v>
+        <v>1.02995265083278</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051157022180587</v>
+        <v>1.050922118360839</v>
       </c>
       <c r="J19">
-        <v>1.023488533644031</v>
+        <v>1.023567515022099</v>
       </c>
       <c r="K19">
-        <v>1.037043484264319</v>
+        <v>1.036591508022361</v>
       </c>
       <c r="L19">
-        <v>1.019682961155455</v>
+        <v>1.019762863072549</v>
       </c>
       <c r="M19">
-        <v>1.04347371558637</v>
+        <v>1.043211761563581</v>
       </c>
       <c r="N19">
-        <v>1.010821601355505</v>
+        <v>1.012978136531348</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043545263680548</v>
+        <v>1.043338079409952</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037337885851804</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037034417450923</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021875830350914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9934991411066076</v>
+        <v>0.9940127810373625</v>
       </c>
       <c r="D20">
-        <v>1.021543413083337</v>
+        <v>1.021443879490256</v>
       </c>
       <c r="E20">
-        <v>1.003319379719206</v>
+        <v>1.003827611967124</v>
       </c>
       <c r="F20">
-        <v>1.027658824112485</v>
+        <v>1.027672689761897</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050152321020053</v>
+        <v>1.050104625372068</v>
       </c>
       <c r="J20">
-        <v>1.021282980648051</v>
+        <v>1.02177646699507</v>
       </c>
       <c r="K20">
-        <v>1.03521773769396</v>
+        <v>1.035119860696129</v>
       </c>
       <c r="L20">
-        <v>1.017304111877763</v>
+        <v>1.017803489685849</v>
       </c>
       <c r="M20">
-        <v>1.0412321578243</v>
+        <v>1.041245796249982</v>
       </c>
       <c r="N20">
-        <v>1.009729049615568</v>
+        <v>1.012376785446327</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041245628391196</v>
+        <v>1.041256421747663</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036050944212436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035998233041939</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021414722484517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9868962707033585</v>
+        <v>0.9881952235071254</v>
       </c>
       <c r="D21">
-        <v>1.017153759919252</v>
+        <v>1.017732089790768</v>
       </c>
       <c r="E21">
-        <v>0.9974059241990162</v>
+        <v>0.9986889620268289</v>
       </c>
       <c r="F21">
-        <v>1.023367017595269</v>
+        <v>1.023908029021288</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048339134571907</v>
+        <v>1.048643941206574</v>
       </c>
       <c r="J21">
-        <v>1.016952256774945</v>
+        <v>1.018194925310116</v>
       </c>
       <c r="K21">
-        <v>1.031817277058795</v>
+        <v>1.032385133408022</v>
       </c>
       <c r="L21">
-        <v>1.012436609366205</v>
+        <v>1.013695215066407</v>
       </c>
       <c r="M21">
-        <v>1.0379188173546</v>
+        <v>1.03845018442921</v>
       </c>
       <c r="N21">
-        <v>1.008119798544252</v>
+        <v>1.011807424065802</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038582588319139</v>
+        <v>1.039003130730696</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033649941309931</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034068271014727</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020785209621115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9826635553498304</v>
+        <v>0.98446824316559</v>
       </c>
       <c r="D22">
-        <v>1.014351395548748</v>
+        <v>1.015365756607603</v>
       </c>
       <c r="E22">
-        <v>0.9936262290407631</v>
+        <v>0.9954067200966137</v>
       </c>
       <c r="F22">
-        <v>1.02066073024983</v>
+        <v>1.021541248454218</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047171325609865</v>
+        <v>1.047702481539994</v>
       </c>
       <c r="J22">
-        <v>1.014183982073947</v>
+        <v>1.015905608128947</v>
       </c>
       <c r="K22">
-        <v>1.029643810684314</v>
+        <v>1.030638839349071</v>
       </c>
       <c r="L22">
-        <v>1.009325017920669</v>
+        <v>1.011069723255955</v>
       </c>
       <c r="M22">
-        <v>1.035833712361601</v>
+        <v>1.036697715889157</v>
       </c>
       <c r="N22">
-        <v>1.007097381545882</v>
+        <v>1.011441826529027</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036932361208106</v>
+        <v>1.037616165148726</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032099681307907</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03281876162348</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020385182780322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.984896715130541</v>
+        <v>0.986414083781962</v>
       </c>
       <c r="D23">
-        <v>1.01582376108873</v>
+        <v>1.016593015460694</v>
       </c>
       <c r="E23">
-        <v>0.9956175441636377</v>
+        <v>0.9971155063204957</v>
       </c>
       <c r="F23">
-        <v>1.022086290358643</v>
+        <v>1.022775248376795</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I23">
-        <v>1.047784298107486</v>
+        <v>1.04818819938804</v>
       </c>
       <c r="J23">
-        <v>1.015638109063247</v>
+        <v>1.017087820543233</v>
       </c>
       <c r="K23">
-        <v>1.030782423651533</v>
+        <v>1.031537405075495</v>
       </c>
       <c r="L23">
-        <v>1.010961483725934</v>
+        <v>1.012430180966014</v>
       </c>
       <c r="M23">
-        <v>1.036929569337815</v>
+        <v>1.037605945989128</v>
       </c>
       <c r="N23">
-        <v>1.007627485433695</v>
+        <v>1.011578256238583</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.037799662322443</v>
+        <v>1.038334970906942</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03289507309759</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033443487014394</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020584475846583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9934937732985745</v>
+        <v>0.9940235377438031</v>
       </c>
       <c r="D24">
-        <v>1.021514367631306</v>
+        <v>1.021425887998729</v>
       </c>
       <c r="E24">
-        <v>1.00330397556235</v>
+        <v>1.003828174804328</v>
       </c>
       <c r="F24">
-        <v>1.027598840773368</v>
+        <v>1.027621727137437</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050125951928648</v>
+        <v>1.050084013095549</v>
       </c>
       <c r="J24">
-        <v>1.021244596036287</v>
+        <v>1.021753603628428</v>
       </c>
       <c r="K24">
-        <v>1.035173914940109</v>
+        <v>1.035086906125573</v>
       </c>
       <c r="L24">
-        <v>1.017273317062152</v>
+        <v>1.01778839527585</v>
       </c>
       <c r="M24">
-        <v>1.041158025527582</v>
+        <v>1.041180537268431</v>
       </c>
       <c r="N24">
-        <v>1.009681786497923</v>
+        <v>1.012347009907404</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041146206672224</v>
+        <v>1.041164023189564</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035992560924151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035944871314234</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021392119943514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003032103339986</v>
+        <v>1.002776370601742</v>
       </c>
       <c r="D25">
-        <v>1.027851110709857</v>
+        <v>1.027028388035224</v>
       </c>
       <c r="E25">
-        <v>1.011864041981535</v>
+        <v>1.011610389240179</v>
       </c>
       <c r="F25">
-        <v>1.033756507119455</v>
+        <v>1.033221613996428</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052669915796588</v>
+        <v>1.052245768920677</v>
       </c>
       <c r="J25">
-        <v>1.027457854218607</v>
+        <v>1.027210658701058</v>
       </c>
       <c r="K25">
-        <v>1.040031928573286</v>
+        <v>1.039221127248387</v>
       </c>
       <c r="L25">
-        <v>1.024280933967763</v>
+        <v>1.024031103371067</v>
       </c>
       <c r="M25">
-        <v>1.045852459879353</v>
+        <v>1.045325203015467</v>
       </c>
       <c r="N25">
-        <v>1.011954865478657</v>
+        <v>1.013843328724993</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.044861523872249</v>
+        <v>1.044444237802136</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039424551128122</v>
+        <v>1.038864777001804</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022362591203366</v>
       </c>
     </row>
   </sheetData>
